--- a/Testing/SalinityTesting.xlsx
+++ b/Testing/SalinityTesting.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuhay\Documents\GitHub\EEE4022S_Thesis\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4BF26B-7621-40D0-B3A3-A6F45FBFA111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA03D42-4042-4658-9415-AF114B86163D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="984" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC Testing" sheetId="2" r:id="rId1"/>
-    <sheet name="StandardSolutionTesting" sheetId="3" r:id="rId2"/>
-    <sheet name="StandardSolutionSweep" sheetId="4" r:id="rId3"/>
-    <sheet name="SalinityTesting" sheetId="1" r:id="rId4"/>
+    <sheet name="ResistorPointTests" sheetId="5" r:id="rId2"/>
+    <sheet name="ResistorSweepTest" sheetId="6" r:id="rId3"/>
+    <sheet name="StandardSolutionTesting" sheetId="3" r:id="rId4"/>
+    <sheet name="StandardSolutionSweep" sheetId="4" r:id="rId5"/>
+    <sheet name="SalinityTesting" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Gain</t>
   </si>
@@ -136,15 +138,49 @@
   <si>
     <t>Probe Voltage</t>
   </si>
+  <si>
+    <t>R1 Resistor</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Vcalib</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min </t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Accurate</t>
+  </si>
+  <si>
+    <t>Measured R</t>
+  </si>
+  <si>
+    <t>Measured Resistance</t>
+  </si>
+  <si>
+    <t>Multimeter Resistance</t>
+  </si>
+  <si>
+    <t>Multimeter Resistor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -177,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -405,11 +441,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,7 +678,6 @@
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -486,24 +695,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,6 +767,3973 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DAC Output</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> vs DAC Input</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DAC Testing'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multimeter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="10000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DAC Testing'!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DAC Testing'!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>9.7999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31580000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.794</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.895</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.492</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51F2-4A10-8605-755F0468AD34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="24061744"/>
+        <c:axId val="24056464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="24061744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Input Voltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24056464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="24056464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Output Voltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24061744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DAC Output Measured by the ADC vs Multimeter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DAC Testing'!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>9.7999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31580000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.794</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.895</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.492</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DAC Testing'!$G$2:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.268</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.278</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.407</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.528</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.653</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.887</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F93-41C8-BE71-089F93BEA7FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="23989264"/>
+        <c:axId val="23987824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="23989264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1100">
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="95000"/>
+                          <a:lumOff val="5000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                  </a:rPr>
+                  <a:t>Multimeter Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23987824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="23987824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="95000"/>
+                          <a:lumOff val="5000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1100">
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="95000"/>
+                          <a:lumOff val="5000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ADC Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23989264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Measured Resistance vs Multimeter Resistance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResistorSweepTest!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Measured Resistance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ResistorSweepTest!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8480000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.124000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.004000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.023000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.013999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.784999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ResistorSweepTest!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7204999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.001799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.121500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.034700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.798100000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.803400000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.970100000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.003399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.030099999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.9084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.409899999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-568A-4286-9646-6580CFA64C52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="24028144"/>
+        <c:axId val="24041104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="24028144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Multimeter Resistance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24041104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="24041104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Measured Resistance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24028144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>359178</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>73949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>206778</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3811</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E41C6B9-21C4-418E-4D39-8F632B824CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>301682</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>193964</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1EE369-2D66-DB04-8EA0-B3E88009B6DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>499110</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB45C659-003B-EE38-A1A9-C635CFB17DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,23 +5001,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D037B9BC-699C-4284-8C6E-ADD0EEB1230A}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
@@ -831,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -846,7 +5061,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E2" s="1">
-        <f>A2/D2</f>
+        <f t="shared" ref="E2:E36" si="0">A2/D2</f>
         <v>0</v>
       </c>
       <c r="F2" s="9">
@@ -857,7 +5072,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H2" s="1">
-        <f>A2/G2</f>
+        <f t="shared" ref="H2:H36" si="1">A2/G2</f>
         <v>0</v>
       </c>
       <c r="I2" s="12">
@@ -865,7 +5080,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.1</v>
       </c>
@@ -873,33 +5088,33 @@
         <v>0.1158</v>
       </c>
       <c r="C3" s="9">
-        <f>B3/A3</f>
+        <f t="shared" ref="C3:C34" si="2">B3/A3</f>
         <v>1.1579999999999999</v>
       </c>
       <c r="D3" s="10">
         <v>0.157</v>
       </c>
       <c r="E3" s="1">
-        <f>A3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.63694267515923575</v>
       </c>
       <c r="F3" s="9">
-        <f>D3/A3</f>
+        <f t="shared" ref="F3:F28" si="3">D3/A3</f>
         <v>1.5699999999999998</v>
       </c>
       <c r="G3" s="1">
         <v>0.14299999999999999</v>
       </c>
       <c r="H3" s="1">
-        <f>A3/G3</f>
+        <f t="shared" si="1"/>
         <v>0.69930069930069938</v>
       </c>
       <c r="I3" s="12">
-        <f>G3/A3</f>
+        <f t="shared" ref="I3:I28" si="4">G3/A3</f>
         <v>1.4299999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>0.2</v>
       </c>
@@ -907,33 +5122,33 @@
         <v>0.21579999999999999</v>
       </c>
       <c r="C4" s="9">
-        <f>B4/A4</f>
+        <f t="shared" si="2"/>
         <v>1.079</v>
       </c>
       <c r="D4" s="10">
         <v>0.27900000000000003</v>
       </c>
       <c r="E4" s="1">
-        <f>A4/D4</f>
+        <f t="shared" si="0"/>
         <v>0.71684587813620071</v>
       </c>
       <c r="F4" s="9">
-        <f>D4/A4</f>
+        <f t="shared" si="3"/>
         <v>1.395</v>
       </c>
       <c r="G4" s="1">
         <v>0.26900000000000002</v>
       </c>
       <c r="H4" s="1">
-        <f>A4/G4</f>
+        <f t="shared" si="1"/>
         <v>0.74349442379182151</v>
       </c>
       <c r="I4" s="12">
-        <f>G4/A4</f>
+        <f t="shared" si="4"/>
         <v>1.345</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>0.3</v>
       </c>
@@ -941,33 +5156,33 @@
         <v>0.31580000000000003</v>
       </c>
       <c r="C5" s="9">
-        <f>B5/A5</f>
+        <f t="shared" si="2"/>
         <v>1.0526666666666669</v>
       </c>
       <c r="D5" s="10">
         <v>0.39600000000000002</v>
       </c>
       <c r="E5" s="1">
-        <f>A5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.75757575757575746</v>
       </c>
       <c r="F5" s="9">
-        <f>D5/A5</f>
+        <f t="shared" si="3"/>
         <v>1.32</v>
       </c>
       <c r="G5" s="1">
         <v>0.39100000000000001</v>
       </c>
       <c r="H5" s="1">
-        <f>A5/G5</f>
+        <f t="shared" si="1"/>
         <v>0.76726342710997442</v>
       </c>
       <c r="I5" s="12">
-        <f>G5/A5</f>
+        <f t="shared" si="4"/>
         <v>1.3033333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>0.4</v>
       </c>
@@ -975,33 +5190,33 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="C6" s="9">
-        <f>B6/A6</f>
+        <f t="shared" si="2"/>
         <v>1.0325</v>
       </c>
       <c r="D6" s="10">
         <v>0.53300000000000003</v>
       </c>
       <c r="E6" s="1">
-        <f>A6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.75046904315196994</v>
       </c>
       <c r="F6" s="9">
-        <f>D6/A6</f>
+        <f t="shared" si="3"/>
         <v>1.3325</v>
       </c>
       <c r="G6" s="1">
         <v>0.51700000000000002</v>
       </c>
       <c r="H6" s="1">
-        <f>A6/G6</f>
+        <f t="shared" si="1"/>
         <v>0.77369439071566737</v>
       </c>
       <c r="I6" s="12">
-        <f>G6/A6</f>
+        <f t="shared" si="4"/>
         <v>1.2925</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>0.5</v>
       </c>
@@ -1009,33 +5224,33 @@
         <v>0.51</v>
       </c>
       <c r="C7" s="9">
-        <f>B7/A7</f>
+        <f t="shared" si="2"/>
         <v>1.02</v>
       </c>
       <c r="D7" s="10">
         <v>0.65800000000000003</v>
       </c>
       <c r="E7" s="1">
-        <f>A7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.75987841945288748</v>
       </c>
       <c r="F7" s="9">
-        <f>D7/A7</f>
+        <f t="shared" si="3"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="G7" s="1">
         <v>0.64800000000000002</v>
       </c>
       <c r="H7" s="1">
-        <f>A7/G7</f>
+        <f t="shared" si="1"/>
         <v>0.77160493827160492</v>
       </c>
       <c r="I7" s="12">
-        <f>G7/A7</f>
+        <f t="shared" si="4"/>
         <v>1.296</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>0.6</v>
       </c>
@@ -1043,33 +5258,33 @@
         <v>0.61199999999999999</v>
       </c>
       <c r="C8" s="9">
-        <f>B8/A8</f>
+        <f t="shared" si="2"/>
         <v>1.02</v>
       </c>
       <c r="D8" s="10">
         <v>0.78100000000000003</v>
       </c>
       <c r="E8" s="1">
-        <f>A8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.76824583866837381</v>
       </c>
       <c r="F8" s="9">
-        <f>D8/A8</f>
+        <f t="shared" si="3"/>
         <v>1.3016666666666667</v>
       </c>
       <c r="G8" s="1">
         <v>0.77</v>
       </c>
       <c r="H8" s="1">
-        <f>A8/G8</f>
+        <f t="shared" si="1"/>
         <v>0.77922077922077915</v>
       </c>
       <c r="I8" s="12">
-        <f>G8/A8</f>
+        <f t="shared" si="4"/>
         <v>1.2833333333333334</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>0.7</v>
       </c>
@@ -1077,33 +5292,33 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="C9" s="9">
-        <f>B9/A9</f>
+        <f t="shared" si="2"/>
         <v>1.0157142857142858</v>
       </c>
       <c r="D9" s="10">
         <v>0.90900000000000003</v>
       </c>
       <c r="E9" s="1">
-        <f>A9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.77007700770077003</v>
       </c>
       <c r="F9" s="9">
-        <f>D9/A9</f>
+        <f t="shared" si="3"/>
         <v>1.2985714285714287</v>
       </c>
       <c r="G9" s="1">
         <v>0.89800000000000002</v>
       </c>
       <c r="H9" s="1">
-        <f>A9/G9</f>
+        <f t="shared" si="1"/>
         <v>0.77951002227171484</v>
       </c>
       <c r="I9" s="12">
-        <f>G9/A9</f>
+        <f t="shared" si="4"/>
         <v>1.2828571428571429</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>0.8</v>
       </c>
@@ -1111,33 +5326,33 @@
         <v>0.81</v>
       </c>
       <c r="C10" s="9">
-        <f>B10/A10</f>
+        <f t="shared" si="2"/>
         <v>1.0125</v>
       </c>
       <c r="D10" s="10">
         <v>1.0309999999999999</v>
       </c>
       <c r="E10" s="1">
-        <f>A10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.77594568380213391</v>
       </c>
       <c r="F10" s="9">
-        <f>D10/A10</f>
+        <f t="shared" si="3"/>
         <v>1.2887499999999998</v>
       </c>
       <c r="G10" s="1">
         <v>1.0209999999999999</v>
       </c>
       <c r="H10" s="1">
-        <f>A10/G10</f>
+        <f t="shared" si="1"/>
         <v>0.78354554358472095</v>
       </c>
       <c r="I10" s="12">
-        <f>G10/A10</f>
+        <f t="shared" si="4"/>
         <v>1.2762499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>0.9</v>
       </c>
@@ -1145,33 +5360,33 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="C11" s="9">
-        <f>B11/A11</f>
+        <f t="shared" si="2"/>
         <v>0.99888888888888894</v>
       </c>
       <c r="D11" s="10">
         <v>1.1519999999999999</v>
       </c>
       <c r="E11" s="1">
-        <f>A11/D11</f>
+        <f t="shared" si="0"/>
         <v>0.78125000000000011</v>
       </c>
       <c r="F11" s="9">
-        <f>D11/A11</f>
+        <f t="shared" si="3"/>
         <v>1.2799999999999998</v>
       </c>
       <c r="G11" s="1">
         <v>1.145</v>
       </c>
       <c r="H11" s="1">
-        <f>A11/G11</f>
+        <f t="shared" si="1"/>
         <v>0.7860262008733625</v>
       </c>
       <c r="I11" s="12">
-        <f>G11/A11</f>
+        <f t="shared" si="4"/>
         <v>1.2722222222222221</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -1179,33 +5394,33 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="C12" s="9">
-        <f>B12/A12</f>
+        <f t="shared" si="2"/>
         <v>1.0049999999999999</v>
       </c>
       <c r="D12" s="10">
         <v>1.27</v>
       </c>
       <c r="E12" s="1">
-        <f>A12/D12</f>
+        <f t="shared" si="0"/>
         <v>0.78740157480314954</v>
       </c>
       <c r="F12" s="9">
-        <f>D12/A12</f>
+        <f t="shared" si="3"/>
         <v>1.27</v>
       </c>
       <c r="G12" s="1">
         <v>1.268</v>
       </c>
       <c r="H12" s="1">
-        <f>A12/G12</f>
+        <f t="shared" si="1"/>
         <v>0.78864353312302837</v>
       </c>
       <c r="I12" s="12">
-        <f>G12/A12</f>
+        <f t="shared" si="4"/>
         <v>1.268</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -1213,33 +5428,33 @@
         <v>1.103</v>
       </c>
       <c r="C13" s="9">
-        <f>B13/A13</f>
+        <f t="shared" si="2"/>
         <v>1.0027272727272727</v>
       </c>
       <c r="D13" s="10">
         <v>1.4039999999999999</v>
       </c>
       <c r="E13" s="1">
-        <f>A13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.78347578347578362</v>
       </c>
       <c r="F13" s="9">
-        <f>D13/A13</f>
+        <f t="shared" si="3"/>
         <v>1.2763636363636361</v>
       </c>
       <c r="G13" s="1">
         <v>1.3939999999999999</v>
       </c>
       <c r="H13" s="1">
-        <f>A13/G13</f>
+        <f t="shared" si="1"/>
         <v>0.78909612625538028</v>
       </c>
       <c r="I13" s="12">
-        <f>G13/A13</f>
+        <f t="shared" si="4"/>
         <v>1.2672727272727271</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1.2</v>
       </c>
@@ -1247,33 +5462,33 @@
         <v>1.206</v>
       </c>
       <c r="C14" s="9">
-        <f>B14/A14</f>
+        <f t="shared" si="2"/>
         <v>1.0050000000000001</v>
       </c>
       <c r="D14" s="10">
         <v>1.536</v>
       </c>
       <c r="E14" s="1">
-        <f>A14/D14</f>
+        <f t="shared" si="0"/>
         <v>0.78125</v>
       </c>
       <c r="F14" s="9">
-        <f>D14/A14</f>
+        <f t="shared" si="3"/>
         <v>1.28</v>
       </c>
       <c r="G14" s="1">
         <v>1.5189999999999999</v>
       </c>
       <c r="H14" s="1">
-        <f>A14/G14</f>
+        <f t="shared" si="1"/>
         <v>0.78999341672152734</v>
       </c>
       <c r="I14" s="12">
-        <f>G14/A14</f>
+        <f t="shared" si="4"/>
         <v>1.2658333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1.3</v>
       </c>
@@ -1281,33 +5496,33 @@
         <v>1.3080000000000001</v>
       </c>
       <c r="C15" s="9">
-        <f>B15/A15</f>
+        <f t="shared" si="2"/>
         <v>1.0061538461538462</v>
       </c>
       <c r="D15" s="10">
         <v>1.6619999999999999</v>
       </c>
       <c r="E15" s="1">
-        <f>A15/D15</f>
+        <f t="shared" si="0"/>
         <v>0.78219013237063784</v>
       </c>
       <c r="F15" s="9">
-        <f>D15/A15</f>
+        <f t="shared" si="3"/>
         <v>1.2784615384615383</v>
       </c>
       <c r="G15" s="1">
         <v>1.6459999999999999</v>
       </c>
       <c r="H15" s="1">
-        <f>A15/G15</f>
+        <f t="shared" si="1"/>
         <v>0.78979343863912521</v>
       </c>
       <c r="I15" s="12">
-        <f>G15/A15</f>
+        <f t="shared" si="4"/>
         <v>1.266153846153846</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1.4</v>
       </c>
@@ -1315,33 +5530,33 @@
         <v>1.4079999999999999</v>
       </c>
       <c r="C16" s="9">
-        <f>B16/A16</f>
+        <f t="shared" si="2"/>
         <v>1.0057142857142858</v>
       </c>
       <c r="D16" s="10">
         <v>1.7649999999999999</v>
       </c>
       <c r="E16" s="1">
-        <f>A16/D16</f>
+        <f t="shared" si="0"/>
         <v>0.79320113314447593</v>
       </c>
       <c r="F16" s="9">
-        <f>D16/A16</f>
+        <f t="shared" si="3"/>
         <v>1.2607142857142857</v>
       </c>
       <c r="G16" s="1">
         <v>1.7729999999999999</v>
       </c>
       <c r="H16" s="1">
-        <f>A16/G16</f>
+        <f t="shared" si="1"/>
         <v>0.78962210941906374</v>
       </c>
       <c r="I16" s="12">
-        <f>G16/A16</f>
+        <f t="shared" si="4"/>
         <v>1.2664285714285715</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1.5</v>
       </c>
@@ -1349,33 +5564,33 @@
         <v>1.4990000000000001</v>
       </c>
       <c r="C17" s="9">
-        <f>B17/A17</f>
+        <f t="shared" si="2"/>
         <v>0.99933333333333341</v>
       </c>
       <c r="D17" s="10">
         <v>1.9139999999999999</v>
       </c>
       <c r="E17" s="1">
-        <f>A17/D17</f>
+        <f t="shared" si="0"/>
         <v>0.78369905956112851</v>
       </c>
       <c r="F17" s="9">
-        <f>D17/A17</f>
+        <f t="shared" si="3"/>
         <v>1.276</v>
       </c>
       <c r="G17" s="1">
         <v>1.901</v>
       </c>
       <c r="H17" s="1">
-        <f>A17/G17</f>
+        <f t="shared" si="1"/>
         <v>0.78905839032088376</v>
       </c>
       <c r="I17" s="12">
-        <f>G17/A17</f>
+        <f t="shared" si="4"/>
         <v>1.2673333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1.6</v>
       </c>
@@ -1383,33 +5598,33 @@
         <v>1.601</v>
       </c>
       <c r="C18" s="9">
-        <f>B18/A18</f>
+        <f t="shared" si="2"/>
         <v>1.0006249999999999</v>
       </c>
       <c r="D18" s="10">
         <v>2.036</v>
       </c>
       <c r="E18" s="1">
-        <f>A18/D18</f>
+        <f t="shared" si="0"/>
         <v>0.78585461689587432</v>
       </c>
       <c r="F18" s="9">
-        <f>D18/A18</f>
+        <f t="shared" si="3"/>
         <v>1.2725</v>
       </c>
       <c r="G18" s="1">
         <v>2.0259999999999998</v>
       </c>
       <c r="H18" s="1">
-        <f>A18/G18</f>
+        <f t="shared" si="1"/>
         <v>0.78973346495557761</v>
       </c>
       <c r="I18" s="12">
-        <f>G18/A18</f>
+        <f t="shared" si="4"/>
         <v>1.2662499999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1.7</v>
       </c>
@@ -1417,33 +5632,33 @@
         <v>1.7030000000000001</v>
       </c>
       <c r="C19" s="9">
-        <f>B19/A19</f>
+        <f t="shared" si="2"/>
         <v>1.0017647058823531</v>
       </c>
       <c r="D19" s="10">
         <v>2.157</v>
       </c>
       <c r="E19" s="1">
-        <f>A19/D19</f>
+        <f t="shared" si="0"/>
         <v>0.78813166434863235</v>
       </c>
       <c r="F19" s="9">
-        <f>D19/A19</f>
+        <f t="shared" si="3"/>
         <v>1.2688235294117647</v>
       </c>
       <c r="G19" s="1">
         <v>2.1539999999999999</v>
       </c>
       <c r="H19" s="1">
-        <f>A19/G19</f>
+        <f t="shared" si="1"/>
         <v>0.78922934076137419</v>
       </c>
       <c r="I19" s="12">
-        <f>G19/A19</f>
+        <f t="shared" si="4"/>
         <v>1.2670588235294118</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>1.8</v>
       </c>
@@ -1451,33 +5666,33 @@
         <v>1.8029999999999999</v>
       </c>
       <c r="C20" s="9">
-        <f>B20/A20</f>
+        <f t="shared" si="2"/>
         <v>1.0016666666666667</v>
       </c>
       <c r="D20" s="10">
         <v>2.294</v>
       </c>
       <c r="E20" s="1">
-        <f>A20/D20</f>
+        <f t="shared" si="0"/>
         <v>0.78465562336530081</v>
       </c>
       <c r="F20" s="9">
-        <f>D20/A20</f>
+        <f t="shared" si="3"/>
         <v>1.2744444444444445</v>
       </c>
       <c r="G20" s="1">
         <v>2.278</v>
       </c>
       <c r="H20" s="1">
-        <f>A20/G20</f>
+        <f t="shared" si="1"/>
         <v>0.79016681299385427</v>
       </c>
       <c r="I20" s="12">
-        <f>G20/A20</f>
+        <f t="shared" si="4"/>
         <v>1.2655555555555555</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1.9</v>
       </c>
@@ -1485,33 +5700,33 @@
         <v>1.9039999999999999</v>
       </c>
       <c r="C21" s="9">
-        <f>B21/A21</f>
+        <f t="shared" si="2"/>
         <v>1.0021052631578948</v>
       </c>
       <c r="D21" s="10">
         <v>2.4119999999999999</v>
       </c>
       <c r="E21" s="1">
-        <f>A21/D21</f>
+        <f t="shared" si="0"/>
         <v>0.78772802653399665</v>
       </c>
       <c r="F21" s="9">
-        <f>D21/A21</f>
+        <f t="shared" si="3"/>
         <v>1.2694736842105263</v>
       </c>
       <c r="G21" s="1">
         <v>2.407</v>
       </c>
       <c r="H21" s="1">
-        <f>A21/G21</f>
+        <f t="shared" si="1"/>
         <v>0.78936435396759452</v>
       </c>
       <c r="I21" s="12">
-        <f>G21/A21</f>
+        <f t="shared" si="4"/>
         <v>1.266842105263158</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>2</v>
       </c>
@@ -1519,33 +5734,33 @@
         <v>2.0030000000000001</v>
       </c>
       <c r="C22" s="9">
-        <f>B22/A22</f>
+        <f t="shared" si="2"/>
         <v>1.0015000000000001</v>
       </c>
       <c r="D22" s="10">
         <v>2.5369999999999999</v>
       </c>
       <c r="E22" s="1">
-        <f>A22/D22</f>
+        <f t="shared" si="0"/>
         <v>0.78833267638943638</v>
       </c>
       <c r="F22" s="9">
-        <f>D22/A22</f>
+        <f t="shared" si="3"/>
         <v>1.2685</v>
       </c>
       <c r="G22" s="1">
         <v>2.528</v>
       </c>
       <c r="H22" s="1">
-        <f>A22/G22</f>
+        <f t="shared" si="1"/>
         <v>0.79113924050632911</v>
       </c>
       <c r="I22" s="12">
-        <f>G22/A22</f>
+        <f t="shared" si="4"/>
         <v>1.264</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2.1</v>
       </c>
@@ -1553,33 +5768,33 @@
         <v>2.0939999999999999</v>
       </c>
       <c r="C23" s="9">
-        <f>B23/A23</f>
+        <f t="shared" si="2"/>
         <v>0.997142857142857</v>
       </c>
       <c r="D23" s="10">
         <v>2.665</v>
       </c>
       <c r="E23" s="1">
-        <f>A23/D23</f>
+        <f t="shared" si="0"/>
         <v>0.7879924953095685</v>
       </c>
       <c r="F23" s="9">
-        <f>D23/A23</f>
+        <f t="shared" si="3"/>
         <v>1.269047619047619</v>
       </c>
       <c r="G23" s="1">
         <v>2.653</v>
       </c>
       <c r="H23" s="1">
-        <f>A23/G23</f>
+        <f t="shared" si="1"/>
         <v>0.79155672823219003</v>
       </c>
       <c r="I23" s="12">
-        <f>G23/A23</f>
+        <f t="shared" si="4"/>
         <v>1.2633333333333332</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>2.2000000000000002</v>
       </c>
@@ -1587,33 +5802,33 @@
         <v>2.1989999999999998</v>
       </c>
       <c r="C24" s="9">
-        <f>B24/A24</f>
+        <f t="shared" si="2"/>
         <v>0.9995454545454544</v>
       </c>
       <c r="D24" s="10">
         <v>2.7970000000000002</v>
       </c>
       <c r="E24" s="1">
-        <f>A24/D24</f>
+        <f t="shared" si="0"/>
         <v>0.78655702538434036</v>
       </c>
       <c r="F24" s="9">
-        <f>D24/A24</f>
+        <f t="shared" si="3"/>
         <v>1.2713636363636363</v>
       </c>
       <c r="G24" s="1">
         <v>2.7810000000000001</v>
       </c>
       <c r="H24" s="1">
-        <f>A24/G24</f>
+        <f t="shared" si="1"/>
         <v>0.79108234448040271</v>
       </c>
       <c r="I24" s="12">
-        <f>G24/A24</f>
+        <f t="shared" si="4"/>
         <v>1.2640909090909092</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>2.2999999999999998</v>
       </c>
@@ -1621,33 +5836,33 @@
         <v>2.2970000000000002</v>
       </c>
       <c r="C25" s="9">
-        <f>B25/A25</f>
+        <f t="shared" si="2"/>
         <v>0.99869565217391321</v>
       </c>
       <c r="D25" s="10">
         <v>2.887</v>
       </c>
       <c r="E25" s="1">
-        <f>A25/D25</f>
+        <f t="shared" si="0"/>
         <v>0.79667474887426393</v>
       </c>
       <c r="F25" s="9">
-        <f>D25/A25</f>
+        <f t="shared" si="3"/>
         <v>1.2552173913043478</v>
       </c>
       <c r="G25" s="1">
         <v>2.887</v>
       </c>
       <c r="H25" s="1">
-        <f>A25/G25</f>
+        <f t="shared" si="1"/>
         <v>0.79667474887426393</v>
       </c>
       <c r="I25" s="12">
-        <f>G25/A25</f>
+        <f t="shared" si="4"/>
         <v>1.2552173913043478</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>2.4</v>
       </c>
@@ -1655,33 +5870,33 @@
         <v>2.3969999999999998</v>
       </c>
       <c r="C26" s="9">
-        <f>B26/A26</f>
+        <f t="shared" si="2"/>
         <v>0.99874999999999992</v>
       </c>
       <c r="D26" s="10">
         <v>3.0510000000000002</v>
       </c>
       <c r="E26" s="1">
-        <f>A26/D26</f>
+        <f t="shared" si="0"/>
         <v>0.78662733529990159</v>
       </c>
       <c r="F26" s="9">
-        <f>D26/A26</f>
+        <f t="shared" si="3"/>
         <v>1.2712500000000002</v>
       </c>
       <c r="G26" s="1">
         <v>3.0390000000000001</v>
       </c>
       <c r="H26" s="1">
-        <f>A26/G26</f>
+        <f t="shared" si="1"/>
         <v>0.78973346495557739</v>
       </c>
       <c r="I26" s="12">
-        <f>G26/A26</f>
+        <f t="shared" si="4"/>
         <v>1.2662500000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>2.5</v>
       </c>
@@ -1689,33 +5904,33 @@
         <v>2.4990000000000001</v>
       </c>
       <c r="C27" s="9">
-        <f>B27/A27</f>
+        <f t="shared" si="2"/>
         <v>0.99960000000000004</v>
       </c>
       <c r="D27" s="10">
         <v>3.177</v>
       </c>
       <c r="E27" s="1">
-        <f>A27/D27</f>
+        <f t="shared" si="0"/>
         <v>0.78690588605602774</v>
       </c>
       <c r="F27" s="9">
-        <f>D27/A27</f>
+        <f t="shared" si="3"/>
         <v>1.2707999999999999</v>
       </c>
       <c r="G27" s="1">
         <v>3.1709999999999998</v>
       </c>
       <c r="H27" s="1">
-        <f>A27/G27</f>
+        <f t="shared" si="1"/>
         <v>0.78839482812992756</v>
       </c>
       <c r="I27" s="12">
-        <f>G27/A27</f>
+        <f t="shared" si="4"/>
         <v>1.2684</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>2.6</v>
       </c>
@@ -1723,33 +5938,33 @@
         <v>2.597</v>
       </c>
       <c r="C28" s="9">
-        <f>B28/A28</f>
+        <f t="shared" si="2"/>
         <v>0.99884615384615383</v>
       </c>
       <c r="D28" s="10">
         <v>3.3</v>
       </c>
       <c r="E28" s="1">
-        <f>A28/D28</f>
+        <f t="shared" si="0"/>
         <v>0.78787878787878796</v>
       </c>
       <c r="F28" s="9">
-        <f>D28/A28</f>
+        <f t="shared" si="3"/>
         <v>1.2692307692307692</v>
       </c>
       <c r="G28" s="1">
         <v>3.3</v>
       </c>
       <c r="H28" s="1">
-        <f>A28/G28</f>
+        <f t="shared" si="1"/>
         <v>0.78787878787878796</v>
       </c>
       <c r="I28" s="12">
-        <f>G28/A28</f>
+        <f t="shared" si="4"/>
         <v>1.2692307692307692</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>2.7</v>
       </c>
@@ -1757,14 +5972,14 @@
         <v>2.6930000000000001</v>
       </c>
       <c r="C29" s="9">
-        <f>B29/A29</f>
+        <f t="shared" si="2"/>
         <v>0.99740740740740741</v>
       </c>
       <c r="D29" s="10">
         <v>3.3</v>
       </c>
       <c r="E29" s="1">
-        <f>A29/D29</f>
+        <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="F29" s="9"/>
@@ -1772,12 +5987,12 @@
         <v>3.3</v>
       </c>
       <c r="H29" s="1">
-        <f>A29/G29</f>
+        <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>2.8</v>
       </c>
@@ -1785,14 +6000,14 @@
         <v>2.794</v>
       </c>
       <c r="C30" s="9">
-        <f>B30/A30</f>
+        <f t="shared" si="2"/>
         <v>0.99785714285714289</v>
       </c>
       <c r="D30" s="10">
         <v>3.3</v>
       </c>
       <c r="E30" s="1">
-        <f>A30/D30</f>
+        <f t="shared" si="0"/>
         <v>0.84848484848484851</v>
       </c>
       <c r="F30" s="9"/>
@@ -1800,12 +6015,12 @@
         <v>3.3</v>
       </c>
       <c r="H30" s="1">
-        <f>A30/G30</f>
+        <f t="shared" si="1"/>
         <v>0.84848484848484851</v>
       </c>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>2.9</v>
       </c>
@@ -1813,14 +6028,14 @@
         <v>2.895</v>
       </c>
       <c r="C31" s="9">
-        <f>B31/A31</f>
+        <f t="shared" si="2"/>
         <v>0.99827586206896557</v>
       </c>
       <c r="D31" s="10">
         <v>3.3</v>
       </c>
       <c r="E31" s="1">
-        <f>A31/D31</f>
+        <f t="shared" si="0"/>
         <v>0.87878787878787878</v>
       </c>
       <c r="F31" s="9"/>
@@ -1828,12 +6043,12 @@
         <v>3.3</v>
       </c>
       <c r="H31" s="1">
-        <f>A31/G31</f>
+        <f t="shared" si="1"/>
         <v>0.87878787878787878</v>
       </c>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>3</v>
       </c>
@@ -1841,14 +6056,14 @@
         <v>2.9950000000000001</v>
       </c>
       <c r="C32" s="9">
-        <f>B32/A32</f>
+        <f t="shared" si="2"/>
         <v>0.99833333333333341</v>
       </c>
       <c r="D32" s="10">
         <v>3.3</v>
       </c>
       <c r="E32" s="1">
-        <f>A32/D32</f>
+        <f t="shared" si="0"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="F32" s="9"/>
@@ -1856,12 +6071,12 @@
         <v>3.3</v>
       </c>
       <c r="H32" s="1">
-        <f>A32/G32</f>
+        <f t="shared" si="1"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>3.1</v>
       </c>
@@ -1869,14 +6084,14 @@
         <v>3.097</v>
       </c>
       <c r="C33" s="9">
-        <f>B33/A33</f>
+        <f t="shared" si="2"/>
         <v>0.99903225806451612</v>
       </c>
       <c r="D33" s="10">
         <v>3.3</v>
       </c>
       <c r="E33" s="1">
-        <f>A33/D33</f>
+        <f t="shared" si="0"/>
         <v>0.93939393939393945</v>
       </c>
       <c r="F33" s="9"/>
@@ -1884,12 +6099,12 @@
         <v>3.3</v>
       </c>
       <c r="H33" s="1">
-        <f>A33/G33</f>
+        <f t="shared" si="1"/>
         <v>0.93939393939393945</v>
       </c>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>3.2</v>
       </c>
@@ -1897,14 +6112,14 @@
         <v>3.1970000000000001</v>
       </c>
       <c r="C34" s="9">
-        <f>B34/A34</f>
+        <f t="shared" si="2"/>
         <v>0.99906249999999996</v>
       </c>
       <c r="D34" s="10">
         <v>3.3</v>
       </c>
       <c r="E34" s="1">
-        <f>A34/D34</f>
+        <f t="shared" si="0"/>
         <v>0.96969696969696983</v>
       </c>
       <c r="F34" s="9"/>
@@ -1912,12 +6127,12 @@
         <v>3.3</v>
       </c>
       <c r="H34" s="1">
-        <f>A34/G34</f>
+        <f t="shared" si="1"/>
         <v>0.96969696969696983</v>
       </c>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>3.3</v>
       </c>
@@ -1925,14 +6140,14 @@
         <v>3.2930000000000001</v>
       </c>
       <c r="C35" s="9">
-        <f>B35/A35</f>
+        <f t="shared" ref="C35:C66" si="5">B35/A35</f>
         <v>0.99787878787878803</v>
       </c>
       <c r="D35" s="10">
         <v>3.3</v>
       </c>
       <c r="E35" s="1">
-        <f>A35/D35</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F35" s="9"/>
@@ -1940,12 +6155,12 @@
         <v>3.3</v>
       </c>
       <c r="H35" s="1">
-        <f>A35/G35</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>3.4</v>
       </c>
@@ -1953,14 +6168,14 @@
         <v>3.3940000000000001</v>
       </c>
       <c r="C36" s="9">
-        <f>B36/A36</f>
+        <f t="shared" si="5"/>
         <v>0.99823529411764711</v>
       </c>
       <c r="D36" s="10">
         <v>3.3</v>
       </c>
       <c r="E36" s="1">
-        <f>A36/D36</f>
+        <f t="shared" si="0"/>
         <v>1.0303030303030303</v>
       </c>
       <c r="F36" s="9"/>
@@ -1968,12 +6183,12 @@
         <v>3.3</v>
       </c>
       <c r="H36" s="1">
-        <f>A36/G36</f>
+        <f t="shared" si="1"/>
         <v>1.0303030303030303</v>
       </c>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>3.5</v>
       </c>
@@ -1981,7 +6196,7 @@
         <v>3.492</v>
       </c>
       <c r="C37" s="9">
-        <f>B37/A37</f>
+        <f t="shared" si="5"/>
         <v>0.99771428571428566</v>
       </c>
       <c r="D37" s="10">
@@ -1993,7 +6208,7 @@
       </c>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>3.6</v>
       </c>
@@ -2001,7 +6216,7 @@
         <v>3.5910000000000002</v>
       </c>
       <c r="C38" s="9">
-        <f>B38/A38</f>
+        <f t="shared" si="5"/>
         <v>0.99750000000000005</v>
       </c>
       <c r="D38" s="10">
@@ -2013,7 +6228,7 @@
       </c>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>3.7</v>
       </c>
@@ -2021,7 +6236,7 @@
         <v>3.6930000000000001</v>
       </c>
       <c r="C39" s="9">
-        <f>B39/A39</f>
+        <f t="shared" si="5"/>
         <v>0.99810810810810813</v>
       </c>
       <c r="D39" s="10">
@@ -2033,7 +6248,7 @@
       </c>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>3.8</v>
       </c>
@@ -2041,7 +6256,7 @@
         <v>3.7919999999999998</v>
       </c>
       <c r="C40" s="9">
-        <f>B40/A40</f>
+        <f t="shared" si="5"/>
         <v>0.99789473684210528</v>
       </c>
       <c r="D40" s="10">
@@ -2053,7 +6268,7 @@
       </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>3.9</v>
       </c>
@@ -2061,7 +6276,7 @@
         <v>3.891</v>
       </c>
       <c r="C41" s="9">
-        <f>B41/A41</f>
+        <f t="shared" si="5"/>
         <v>0.99769230769230777</v>
       </c>
       <c r="D41" s="10">
@@ -2073,7 +6288,7 @@
       </c>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>4</v>
       </c>
@@ -2081,7 +6296,7 @@
         <v>3.99</v>
       </c>
       <c r="C42" s="9">
-        <f>B42/A42</f>
+        <f t="shared" si="5"/>
         <v>0.99750000000000005</v>
       </c>
       <c r="D42" s="10">
@@ -2093,7 +6308,7 @@
       </c>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>4.0999999999999996</v>
       </c>
@@ -2101,7 +6316,7 @@
         <v>4.07</v>
       </c>
       <c r="C43" s="9">
-        <f>B43/A43</f>
+        <f t="shared" si="5"/>
         <v>0.9926829268292684</v>
       </c>
       <c r="D43" s="10">
@@ -2113,7 +6328,7 @@
       </c>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>4.2</v>
       </c>
@@ -2121,7 +6336,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="C44" s="9">
-        <f>B44/A44</f>
+        <f t="shared" si="5"/>
         <v>0.99761904761904763</v>
       </c>
       <c r="D44" s="10">
@@ -2133,7 +6348,7 @@
       </c>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>4.3</v>
       </c>
@@ -2141,7 +6356,7 @@
         <v>4.28</v>
       </c>
       <c r="C45" s="9">
-        <f>B45/A45</f>
+        <f t="shared" si="5"/>
         <v>0.99534883720930245</v>
       </c>
       <c r="D45" s="10">
@@ -2153,7 +6368,7 @@
       </c>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>4.4000000000000004</v>
       </c>
@@ -2161,7 +6376,7 @@
         <v>4.37</v>
       </c>
       <c r="C46" s="9">
-        <f>B46/A46</f>
+        <f t="shared" si="5"/>
         <v>0.99318181818181817</v>
       </c>
       <c r="D46" s="10">
@@ -2173,7 +6388,7 @@
       </c>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>4.5</v>
       </c>
@@ -2181,7 +6396,7 @@
         <v>4.47</v>
       </c>
       <c r="C47" s="9">
-        <f>B47/A47</f>
+        <f t="shared" si="5"/>
         <v>0.99333333333333329</v>
       </c>
       <c r="D47" s="10">
@@ -2193,7 +6408,7 @@
       </c>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>4.5999999999999996</v>
       </c>
@@ -2201,7 +6416,7 @@
         <v>4.58</v>
       </c>
       <c r="C48" s="9">
-        <f>B48/A48</f>
+        <f t="shared" si="5"/>
         <v>0.99565217391304361</v>
       </c>
       <c r="D48" s="10">
@@ -2213,7 +6428,7 @@
       </c>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>4.7</v>
       </c>
@@ -2221,7 +6436,7 @@
         <v>4.67</v>
       </c>
       <c r="C49" s="9">
-        <f>B49/A49</f>
+        <f t="shared" si="5"/>
         <v>0.99361702127659568</v>
       </c>
       <c r="D49" s="10">
@@ -2233,7 +6448,7 @@
       </c>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>4.8</v>
       </c>
@@ -2241,7 +6456,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="C50" s="9">
-        <f>B50/A50</f>
+        <f t="shared" si="5"/>
         <v>0.99374999999999991</v>
       </c>
       <c r="D50" s="10">
@@ -2253,7 +6468,7 @@
       </c>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>4.9000000000000004</v>
       </c>
@@ -2261,7 +6476,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="C51" s="9">
-        <f>B51/A51</f>
+        <f t="shared" si="5"/>
         <v>0.99795918367346925</v>
       </c>
       <c r="D51" s="10">
@@ -2273,7 +6488,7 @@
       </c>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>5</v>
       </c>
@@ -2281,7 +6496,7 @@
         <v>4.91</v>
       </c>
       <c r="C52" s="5">
-        <f>B52/A52</f>
+        <f t="shared" si="5"/>
         <v>0.98199999999999998</v>
       </c>
       <c r="D52" s="6">
@@ -2295,7 +6510,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f>AVERAGE(C2:C52)</f>
         <v>0.98687993526930129</v>
@@ -2319,662 +6534,1334 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24F0555-F5C7-498D-86DB-6ACA0177629E}">
+  <dimension ref="B1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="4" width="21.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="48"/>
+    </row>
+    <row r="3" spans="2:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="45">
+        <v>2</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0</v>
+      </c>
+      <c r="D3" s="46">
+        <v>100</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.7782</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0</v>
+      </c>
+      <c r="H3" s="46">
+        <v>0</v>
+      </c>
+      <c r="I3" s="46">
+        <v>0</v>
+      </c>
+      <c r="J3" s="46">
+        <v>0</v>
+      </c>
+      <c r="K3" s="47" t="str">
+        <f>IF(AND(H3&gt;J3,H3&lt;I3),"Inaccurate","Accurate")</f>
+        <v>Accurate</v>
+      </c>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="39">
+        <v>2</v>
+      </c>
+      <c r="C4" s="40">
+        <v>10</v>
+      </c>
+      <c r="D4" s="40">
+        <v>100</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="F4" s="40">
+        <v>0.2334</v>
+      </c>
+      <c r="G4" s="40">
+        <f>F4*E4</f>
+        <v>0.18174857999999999</v>
+      </c>
+      <c r="H4" s="40">
+        <f>(D4*G4)/(B4-G4)</f>
+        <v>9.9957892511916757</v>
+      </c>
+      <c r="I4" s="40">
+        <f>C4*0.95</f>
+        <v>9.5</v>
+      </c>
+      <c r="J4" s="40">
+        <f>C4*1.05</f>
+        <v>10.5</v>
+      </c>
+      <c r="K4" s="38" t="str">
+        <f>IF(AND(H4&gt;J4,H4&lt;I4),"Inaccurate","Accurate")</f>
+        <v>Accurate</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="39">
+        <v>2</v>
+      </c>
+      <c r="C5" s="40">
+        <v>12</v>
+      </c>
+      <c r="D5" s="40">
+        <v>100</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0.27629999999999999</v>
+      </c>
+      <c r="G5" s="40">
+        <f t="shared" ref="G5:G15" si="0">F5*E5</f>
+        <v>0.21429827999999998</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" ref="H5:H15" si="1">(D5*G5)/(B5-G5)</f>
+        <v>12.00078812714589</v>
+      </c>
+      <c r="I5" s="40">
+        <f t="shared" ref="I5:I15" si="2">C5*0.95</f>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="J5" s="40">
+        <f t="shared" ref="J5:J15" si="3">C5*1.05</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="K5" s="38" t="str">
+        <f t="shared" ref="K5:K15" si="4">IF(AND(H5&gt;J5,H5&lt;I5),"Inaccurate","Accurate")</f>
+        <v>Accurate</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="39">
+        <v>2</v>
+      </c>
+      <c r="C6" s="40">
+        <v>15</v>
+      </c>
+      <c r="D6" s="40">
+        <v>100</v>
+      </c>
+      <c r="E6" s="40">
+        <v>0.77829999999999999</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="G6" s="40">
+        <f t="shared" si="0"/>
+        <v>0.26096398999999998</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" si="1"/>
+        <v>15.006244177772949</v>
+      </c>
+      <c r="I6" s="40">
+        <f t="shared" si="2"/>
+        <v>14.25</v>
+      </c>
+      <c r="J6" s="40">
+        <f t="shared" si="3"/>
+        <v>15.75</v>
+      </c>
+      <c r="K6" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v>Accurate</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="39">
+        <v>2</v>
+      </c>
+      <c r="C7" s="40">
+        <v>18</v>
+      </c>
+      <c r="D7" s="40">
+        <v>100</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0.7752</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="G7" s="40">
+        <f t="shared" si="0"/>
+        <v>0.30682416000000001</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" si="1"/>
+        <v>18.121222424246263</v>
+      </c>
+      <c r="I7" s="40">
+        <f t="shared" si="2"/>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="J7" s="40">
+        <f t="shared" si="3"/>
+        <v>18.900000000000002</v>
+      </c>
+      <c r="K7" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v>Accurate</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="39">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40">
+        <v>22</v>
+      </c>
+      <c r="D8" s="40">
+        <v>100</v>
+      </c>
+      <c r="E8" s="40">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0.46260000000000001</v>
+      </c>
+      <c r="G8" s="40">
+        <f t="shared" si="0"/>
+        <v>0.36087426</v>
+      </c>
+      <c r="H8" s="40">
+        <f t="shared" si="1"/>
+        <v>22.016264597248046</v>
+      </c>
+      <c r="I8" s="40">
+        <f t="shared" si="2"/>
+        <v>20.9</v>
+      </c>
+      <c r="J8" s="40">
+        <f t="shared" si="3"/>
+        <v>23.1</v>
+      </c>
+      <c r="K8" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v>Accurate</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="39">
+        <v>2</v>
+      </c>
+      <c r="C9" s="40">
+        <v>27</v>
+      </c>
+      <c r="D9" s="40">
+        <v>100</v>
+      </c>
+      <c r="E9" s="40">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="G9" s="40">
+        <f t="shared" si="0"/>
+        <v>0.42518391999999999</v>
+      </c>
+      <c r="H9" s="40">
+        <f t="shared" si="1"/>
+        <v>26.998957236961918</v>
+      </c>
+      <c r="I9" s="40">
+        <f t="shared" si="2"/>
+        <v>25.65</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" si="3"/>
+        <v>28.35</v>
+      </c>
+      <c r="K9" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v>Accurate</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="39">
+        <v>2</v>
+      </c>
+      <c r="C10" s="40">
+        <v>33</v>
+      </c>
+      <c r="D10" s="40">
+        <v>100</v>
+      </c>
+      <c r="E10" s="40">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="F10" s="40">
+        <v>0.64190000000000003</v>
+      </c>
+      <c r="G10" s="40">
+        <f t="shared" si="0"/>
+        <v>0.49644546000000001</v>
+      </c>
+      <c r="H10" s="40">
+        <f t="shared" si="1"/>
+        <v>33.018121178364432</v>
+      </c>
+      <c r="I10" s="40">
+        <f t="shared" si="2"/>
+        <v>31.349999999999998</v>
+      </c>
+      <c r="J10" s="40">
+        <f t="shared" si="3"/>
+        <v>34.65</v>
+      </c>
+      <c r="K10" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v>Accurate</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="39">
+        <v>2</v>
+      </c>
+      <c r="C11" s="40">
+        <v>39</v>
+      </c>
+      <c r="D11" s="40">
+        <v>100</v>
+      </c>
+      <c r="E11" s="40">
+        <v>0.77539999999999998</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" si="0"/>
+        <v>0.56146713999999998</v>
+      </c>
+      <c r="H11" s="40">
+        <f t="shared" si="1"/>
+        <v>39.030539768135704</v>
+      </c>
+      <c r="I11" s="40">
+        <f t="shared" si="2"/>
+        <v>37.049999999999997</v>
+      </c>
+      <c r="J11" s="40">
+        <f t="shared" si="3"/>
+        <v>40.950000000000003</v>
+      </c>
+      <c r="K11" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v>Accurate</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="39">
+        <v>2</v>
+      </c>
+      <c r="C12" s="40">
+        <v>47</v>
+      </c>
+      <c r="D12" s="40">
+        <v>100</v>
+      </c>
+      <c r="E12" s="40">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="F12" s="40">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.63985509000000007</v>
+      </c>
+      <c r="H12" s="40">
+        <f t="shared" si="1"/>
+        <v>47.043155864914432</v>
+      </c>
+      <c r="I12" s="40">
+        <f t="shared" si="2"/>
+        <v>44.65</v>
+      </c>
+      <c r="J12" s="40">
+        <f t="shared" si="3"/>
+        <v>49.35</v>
+      </c>
+      <c r="K12" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v>Accurate</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="39">
+        <v>2</v>
+      </c>
+      <c r="C13" s="40">
+        <v>56</v>
+      </c>
+      <c r="D13" s="40">
+        <v>100</v>
+      </c>
+      <c r="E13" s="40">
+        <v>0.7782</v>
+      </c>
+      <c r="F13" s="40">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="0"/>
+        <v>0.71820078000000009</v>
+      </c>
+      <c r="H13" s="40">
+        <f t="shared" si="1"/>
+        <v>56.030676941744446</v>
+      </c>
+      <c r="I13" s="40">
+        <f t="shared" si="2"/>
+        <v>53.199999999999996</v>
+      </c>
+      <c r="J13" s="40">
+        <f t="shared" si="3"/>
+        <v>58.800000000000004</v>
+      </c>
+      <c r="K13" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v>Accurate</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="39">
+        <v>2</v>
+      </c>
+      <c r="C14" s="40">
+        <v>68</v>
+      </c>
+      <c r="D14" s="40">
+        <v>100</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="F14" s="40">
+        <v>1.0367999999999999</v>
+      </c>
+      <c r="G14" s="40">
+        <f t="shared" si="0"/>
+        <v>0.80994815999999992</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="1"/>
+        <v>68.059905692847778</v>
+      </c>
+      <c r="I14" s="40">
+        <f t="shared" si="2"/>
+        <v>64.599999999999994</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" si="3"/>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="K14" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v>Accurate</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="41">
+        <v>2</v>
+      </c>
+      <c r="C15" s="42">
+        <v>82</v>
+      </c>
+      <c r="D15" s="42">
+        <v>100</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="F15" s="42">
+        <v>1.1289</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" si="0"/>
+        <v>0.87771975000000002</v>
+      </c>
+      <c r="H15" s="42">
+        <f t="shared" si="1"/>
+        <v>78.20860698564374</v>
+      </c>
+      <c r="I15" s="42">
+        <f t="shared" si="2"/>
+        <v>77.899999999999991</v>
+      </c>
+      <c r="J15" s="42">
+        <f t="shared" si="3"/>
+        <v>86.100000000000009</v>
+      </c>
+      <c r="K15" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>Accurate</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5E6149-A894-481A-BE57-5DAC4E55F954}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9.8480000000000008</v>
+      </c>
+      <c r="B3">
+        <v>9.7204999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11.972</v>
+      </c>
+      <c r="B4">
+        <v>12.0008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15.124000000000001</v>
+      </c>
+      <c r="B5">
+        <v>15.001799999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>18.872</v>
+      </c>
+      <c r="B6">
+        <v>18.121500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22.004000000000001</v>
+      </c>
+      <c r="B7">
+        <v>22.034700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>27.100999999999999</v>
+      </c>
+      <c r="B8">
+        <v>26.798100000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>33.012</v>
+      </c>
+      <c r="B9">
+        <v>32.803400000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>39.201000000000001</v>
+      </c>
+      <c r="B10">
+        <v>38.970100000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>47.1</v>
+      </c>
+      <c r="B11">
+        <v>46.003399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>56.023000000000003</v>
+      </c>
+      <c r="B12">
+        <v>56.030099999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>68.013999999999996</v>
+      </c>
+      <c r="B13">
+        <v>68.9084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>79.784999999999997</v>
+      </c>
+      <c r="B14">
+        <v>78.409899999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D880E36-7470-46DE-9BE4-3AFE9239FEF3}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" s="13" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="13" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>10000</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3">
         <v>1.2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3">
         <v>0.10100000000000001</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3">
         <v>1.1120000000000001</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3">
         <v>0.77859999999999996</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3">
         <f t="shared" ref="F3:F12" si="0">D3*E3/11</f>
         <v>7.8709381818181823E-2</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3">
         <f t="shared" ref="G3:G22" si="1">(A3*F3)/(B3-F3)</f>
         <v>701.95345026439031</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <f t="shared" ref="H3:H6" si="2">0.01/(G3*0.0004)</f>
         <v>3.5614897242237022E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>10000</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4">
         <v>1.2</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4">
         <v>0.997</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4">
         <v>0.77859999999999996</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>7.0569472727272722E-2</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>624.8234931074436</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <f t="shared" si="2"/>
         <v>4.0011299632264373E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>10000</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5">
         <v>1.3</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5">
         <v>0.122</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5">
         <v>1.355</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5">
         <v>0.77390000000000003</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>9.5330409090909105E-2</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>791.34071126481274</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <f t="shared" si="2"/>
         <v>3.1591954823153343E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <v>10000</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6">
         <v>1.3</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6">
         <v>0.111</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6">
         <v>1.2509999999999999</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6">
         <v>0.77390000000000003</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>8.801353636363636E-2</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>726.1924039940709</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <f t="shared" si="2"/>
         <v>3.4426138117803991E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>10000</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7">
         <v>1.4</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7">
         <v>0.121</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7">
         <v>1.3120000000000001</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7">
         <v>0.77390000000000003</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7">
         <f>D7*E7/11</f>
         <v>9.2305163636363652E-2</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7">
         <f>(A7*F7)/(B7-F7)</f>
         <v>705.86165112527794</v>
       </c>
-      <c r="H7" s="22">
-        <f>0.01/(G7*0.0004)</f>
+      <c r="H7" s="21">
+        <f t="shared" ref="H7:H12" si="3">0.01/(G7*0.0004)</f>
         <v>3.541770538198985E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
         <v>10000</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8">
         <v>1.4</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8">
         <v>0.13100000000000001</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8">
         <v>1.452</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8">
         <v>0.77390000000000003</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8">
         <f>D8*E8/11</f>
         <v>0.1021548</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8">
         <f>(A8*F8)/(B8-F8)</f>
         <v>787.11082030430146</v>
       </c>
-      <c r="H8" s="22">
-        <f>0.01/(G8*0.0004)</f>
+      <c r="H8" s="21">
+        <f t="shared" si="3"/>
         <v>3.1761728279043173E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
         <v>10000</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9">
         <v>1.5</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9">
         <v>0.14299999999999999</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9">
         <v>1.573</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9">
         <v>0.77449999999999997</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>0.11075349999999999</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>797.21993181195694</v>
       </c>
-      <c r="H9" s="22">
-        <f>0.01/(G9*0.0004)</f>
+      <c r="H9" s="21">
+        <f t="shared" si="3"/>
         <v>3.1358975111396029E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
         <v>10000</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10">
         <v>1.5</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10">
         <v>0.123</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10">
         <v>1.359</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10">
         <v>0.77449999999999997</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>9.5685954545454532E-2</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>681.37148421443794</v>
       </c>
-      <c r="H10" s="22">
-        <f>0.01/(G10*0.0004)</f>
+      <c r="H10" s="21">
+        <f t="shared" si="3"/>
         <v>3.6690704819886656E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
         <v>10000</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11">
         <v>1.6</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11">
         <v>2.2109999999999999</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11">
         <v>0.77239999999999998</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>0.15525239999999998</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>1074.5987742080345</v>
       </c>
-      <c r="H11" s="22">
-        <f>0.01/(G11*0.0004)</f>
+      <c r="H11" s="21">
+        <f t="shared" si="3"/>
         <v>2.3264497038371069E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
         <v>10000</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12">
         <v>1.6</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12">
         <v>0.13400000000000001</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12">
         <v>1.4510000000000001</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12">
         <v>0.77239999999999998</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>0.10188658181818182</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>680.0992540460403</v>
       </c>
-      <c r="H12" s="22">
-        <f>0.01/(G12*0.0004)</f>
+      <c r="H12" s="21">
+        <f t="shared" si="3"/>
         <v>3.6759340421666731E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+    <row r="13" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>1000</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>1.2</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>3.3</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>0.77569999999999995</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <f>C13*E13</f>
         <v>0.47860689999999995</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <f>(A13*F13)/(B13-F13)</f>
         <v>663.44812557813475</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="28">
         <f>0.01/(0.0004*G13)</f>
         <v>3.76819212176005E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <v>1000</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14">
         <v>1.2</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14">
         <v>0.58899999999999997</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14">
         <v>3.3</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14">
         <v>0.77569999999999995</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14">
         <f>C14*E14</f>
         <v>0.45688729999999994</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>614.82908312561472</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <f>0.01/(0.0004*G14)</f>
         <v>4.0661706946111216E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
         <v>1000</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15">
         <v>1.3</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15">
         <v>0.65300000000000002</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15">
         <v>3.3</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15">
         <v>0.78010000000000002</v>
       </c>
-      <c r="F15" s="20">
-        <f t="shared" ref="F15:F22" si="3">C15*E15</f>
+      <c r="F15">
+        <f t="shared" ref="F15:F22" si="4">C15*E15</f>
         <v>0.50940530000000006</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>644.33179225714525</v>
       </c>
-      <c r="H15" s="22">
-        <f t="shared" ref="H15:H22" si="4">0.01/(0.0004*G15)</f>
+      <c r="H15" s="21">
+        <f t="shared" ref="H15:H22" si="5">0.01/(0.0004*G15)</f>
         <v>3.8799885866911861E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
         <v>1000</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16">
         <v>1.3</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16">
         <v>0.67100000000000004</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16">
         <v>3.3</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16">
         <v>0.78010000000000002</v>
       </c>
-      <c r="F16" s="20">
-        <f t="shared" si="3"/>
+      <c r="F16">
+        <f t="shared" si="4"/>
         <v>0.52344710000000005</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>674.06496067428259</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="21">
+        <f t="shared" si="5"/>
+        <v>3.7088413518768168E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>1000</v>
+      </c>
+      <c r="B17">
+        <v>1.4</v>
+      </c>
+      <c r="C17">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="D17">
+        <v>3.3</v>
+      </c>
+      <c r="E17">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="4"/>
-        <v>3.7088413518768168E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <v>1000</v>
-      </c>
-      <c r="B17" s="20">
-        <v>1.4</v>
-      </c>
-      <c r="C17" s="30">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="D17" s="30">
-        <v>3.3</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0.77559999999999996</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="3"/>
         <v>0.55145159999999993</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>649.87642425582328</v>
       </c>
-      <c r="H17" s="22">
-        <f t="shared" si="4"/>
+      <c r="H17" s="21">
+        <f t="shared" si="5"/>
         <v>3.8468852026179626E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
         <v>1000</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18">
         <v>1.4</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18">
         <v>0.75900000000000001</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18">
         <v>3.3</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18">
         <v>0.77559999999999996</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18">
         <f>C18*E18</f>
         <v>0.58868039999999999</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>725.5838512960861</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="21">
+        <f t="shared" si="5"/>
+        <v>3.4455011581836247E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>1000</v>
+      </c>
+      <c r="B19">
+        <v>1.5</v>
+      </c>
+      <c r="C19">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="D19">
+        <v>3.3</v>
+      </c>
+      <c r="E19">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="4"/>
-        <v>3.4455011581836247E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
-        <v>1000</v>
-      </c>
-      <c r="B19" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="C19" s="30">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="D19" s="30">
-        <v>3.3</v>
-      </c>
-      <c r="E19" s="30">
-        <v>0.76980000000000004</v>
-      </c>
-      <c r="F19" s="20">
-        <f t="shared" si="3"/>
         <v>0.61737960000000003</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>699.48485215161577</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
+        <f t="shared" si="5"/>
+        <v>3.5740588124388954E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>1000</v>
+      </c>
+      <c r="B20">
+        <v>1.5</v>
+      </c>
+      <c r="C20">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="D20">
+        <v>3.3</v>
+      </c>
+      <c r="E20">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="4"/>
-        <v>3.5740588124388954E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <v>1000</v>
-      </c>
-      <c r="B20" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="C20" s="30">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="D20" s="30">
-        <v>3.3</v>
-      </c>
-      <c r="E20" s="30">
-        <v>0.76980000000000004</v>
-      </c>
-      <c r="F20" s="20">
-        <f t="shared" si="3"/>
         <v>0.64047359999999998</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>745.14709495833984</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="21">
+        <f t="shared" si="5"/>
+        <v>3.3550422687211465E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>1000</v>
+      </c>
+      <c r="B21">
+        <v>1.6</v>
+      </c>
+      <c r="C21">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="D21">
+        <v>3.3</v>
+      </c>
+      <c r="E21">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="4"/>
-        <v>3.3550422687211465E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <v>1000</v>
-      </c>
-      <c r="B21" s="20">
-        <v>1.6</v>
-      </c>
-      <c r="C21" s="30">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D21" s="30">
-        <v>3.3</v>
-      </c>
-      <c r="E21" s="30">
-        <v>0.77949999999999997</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="3"/>
         <v>0.70232949999999994</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>782.39120033464371</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
+        <f t="shared" si="5"/>
+        <v>3.1953324614728565E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>1000</v>
+      </c>
+      <c r="B22">
+        <v>1.6</v>
+      </c>
+      <c r="C22">
+        <v>0.86</v>
+      </c>
+      <c r="D22">
+        <v>3.3</v>
+      </c>
+      <c r="E22">
+        <v>0.77049999999999996</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="4"/>
-        <v>3.1953324614728565E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21">
-        <v>1000</v>
-      </c>
-      <c r="B22" s="20">
-        <v>1.6</v>
-      </c>
-      <c r="C22" s="30">
-        <v>0.86</v>
-      </c>
-      <c r="D22" s="30">
-        <v>3.3</v>
-      </c>
-      <c r="E22" s="30">
-        <v>0.77049999999999996</v>
-      </c>
-      <c r="F22" s="20">
-        <f t="shared" si="3"/>
         <v>0.66262999999999994</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>706.90335726554065</v>
       </c>
-      <c r="H22" s="22">
-        <f t="shared" si="4"/>
+      <c r="H22" s="21">
+        <f t="shared" si="5"/>
         <v>3.5365513182318946E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32">
+    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30">
         <f>AVERAGE(G3:G22)</f>
         <v>723.83163581189967</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="31">
         <f>AVERAGE(H3:H22)</f>
         <v>3.5033144031693393E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>13</v>
       </c>
@@ -2993,32 +7880,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C2B917-F422-4BD5-B274-4417F295C9B2}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
       <c r="J1">
         <v>0.01</v>
       </c>
@@ -3026,7 +7914,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +7943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -3080,7 +7968,7 @@
         <v>3.5454545454545455E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.1</v>
       </c>
@@ -3113,7 +8001,7 @@
         <v>0.1653876678876679</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
@@ -3146,7 +8034,7 @@
         <v>0.15078874024526201</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.3</v>
       </c>
@@ -3179,7 +8067,7 @@
         <v>7.1464497041420133E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.4</v>
       </c>
@@ -3212,7 +8100,7 @@
         <v>6.1025063525063511E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -3245,7 +8133,7 @@
         <v>6.3032361071394524E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.6</v>
       </c>
@@ -3278,7 +8166,7 @@
         <v>4.7746665448565671E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.7</v>
       </c>
@@ -3311,7 +8199,7 @@
         <v>4.3890013495276638E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.8</v>
       </c>
@@ -3344,7 +8232,7 @@
         <v>4.2992142266335819E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.9</v>
       </c>
@@ -3377,7 +8265,7 @@
         <v>4.2003182651850247E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -3410,7 +8298,7 @@
         <v>4.097276233836035E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -3443,146 +8331,146 @@
         <v>3.9291003536693188E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
         <v>1.2</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="33">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="33">
         <v>1.1020000000000001</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="33">
         <f t="shared" si="0"/>
         <v>0.10018181818181819</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="33">
         <v>10000</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="33">
         <v>0.78</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="33">
         <f t="shared" si="1"/>
         <v>7.8141818181818187E-2</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="33">
         <f t="shared" si="2"/>
         <v>696.53918336785398</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="33">
         <f t="shared" si="3"/>
         <v>3.589173530643585E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
         <v>1.3</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="33">
         <v>0.11</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="33">
         <v>1.2430000000000001</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="33">
         <f t="shared" si="0"/>
         <v>0.113</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="33">
         <v>10000</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="33">
         <v>0.78</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="33">
         <f t="shared" si="1"/>
         <v>8.814000000000001E-2</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="33">
         <f t="shared" si="2"/>
         <v>727.31173567903897</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="33">
         <f t="shared" si="3"/>
         <v>3.4373156342182881E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
         <v>1.4</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="33">
         <v>0.121</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="33">
         <v>1.345</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="33">
         <f t="shared" si="0"/>
         <v>0.12227272727272727</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="33">
         <v>10000</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="33">
         <v>0.78</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="33">
         <f t="shared" si="1"/>
         <v>9.5372727272727276E-2</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="33">
         <f t="shared" si="2"/>
         <v>731.03429053230116</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="33">
         <f t="shared" si="3"/>
         <v>3.4198122199980939E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="38">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
         <v>1.5</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="33">
         <v>0.13200000000000001</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="33">
         <v>1.4690000000000001</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="33">
         <f t="shared" si="0"/>
         <v>0.13354545454545455</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="33">
         <v>10000</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="33">
         <v>0.78</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="33">
         <f t="shared" si="1"/>
         <v>0.10416545454545455</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="33">
         <f t="shared" si="2"/>
         <v>746.25932482229598</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="33">
         <f t="shared" si="3"/>
         <v>3.3500418913965546E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1.6</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19">
         <v>0.14699999999999999</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19">
         <v>1.673</v>
       </c>
       <c r="D19">
@@ -3608,14 +8496,14 @@
         <v>3.1218025349824517E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.7</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20">
         <v>0.161</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20">
         <v>1.7749999999999999</v>
       </c>
       <c r="D20">
@@ -3641,14 +8529,14 @@
         <v>3.1266702780787289E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1.8</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21">
         <v>0.191</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21">
         <v>2.101</v>
       </c>
       <c r="D21">
@@ -3674,14 +8562,14 @@
         <v>2.7705396697543294E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1.9</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22">
         <v>0.217</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22">
         <v>2.3940000000000001</v>
       </c>
       <c r="D22">
@@ -3713,14 +8601,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23">
         <v>0.24299999999999999</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23">
         <v>2.6840000000000002</v>
       </c>
       <c r="D23">
@@ -3750,11 +8638,11 @@
         <v>621.30413773487726</v>
       </c>
       <c r="L23">
-        <f>AVERAGE(I4:I23)</f>
-        <v>5.2300023887243682E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <f>AVERAGE(I6:I23)</f>
+        <v>4.0545781645107991E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>16</v>
       </c>
@@ -3783,7 +8671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -3814,14 +8702,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="36">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>0.1</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26">
         <v>1E-3</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D26">
@@ -3839,22 +8727,22 @@
         <v>9.0999999999999989E-4</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H25:H28" si="6">(E26*G26)/(A26-G26)</f>
+        <f t="shared" ref="H26:H28" si="6">(E26*G26)/(A26-G26)</f>
         <v>91.835704914723976</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I25:I28" si="7">$J$1/(H26*$K$1)</f>
+        <f t="shared" ref="I26:I28" si="7">$J$1/(H26*$K$1)</f>
         <v>0.27222527472527475</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="36">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>0.2</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="D27">
@@ -3880,14 +8768,14 @@
         <v>0.13755602240896356</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="36">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>0.3</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28">
         <v>0.01</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28">
         <v>0.14499999999999999</v>
       </c>
       <c r="D28">
@@ -3913,7 +8801,7 @@
         <v>7.1391625615763551E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.4</v>
       </c>
@@ -3946,7 +8834,7 @@
         <v>6.3332784726793934E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.5</v>
       </c>
@@ -3979,7 +8867,7 @@
         <v>6.5140692640692638E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.6</v>
       </c>
@@ -4012,7 +8900,7 @@
         <v>5.0541018387553038E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.7</v>
       </c>
@@ -4045,7 +8933,7 @@
         <v>4.5576923076923077E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.8</v>
       </c>
@@ -4078,7 +8966,7 @@
         <v>4.418534080298786E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.9</v>
       </c>
@@ -4111,7 +8999,7 @@
         <v>4.2963730046474032E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -4144,7 +9032,7 @@
         <v>4.1976071873332133E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -4177,139 +9065,139 @@
         <v>4.0109234583204215E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="38">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
         <v>1.2</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="33">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="33">
         <v>1.044</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="33">
         <f t="shared" si="8"/>
         <v>9.4909090909090915E-2</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="33">
         <v>10000</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="33">
         <v>0.77</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="33">
         <f t="shared" si="9"/>
         <v>7.3080000000000006E-2</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="33">
         <f t="shared" si="10"/>
         <v>648.49323820679388</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="33">
         <f t="shared" si="11"/>
         <v>3.8550903119868633E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="38">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
         <v>1.3</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="33">
         <v>0.108</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="33">
         <v>1.173</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="33">
         <f t="shared" si="8"/>
         <v>0.10663636363636364</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="33">
         <v>10000</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="33">
         <v>0.77</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="33">
         <f t="shared" si="9"/>
         <v>8.2110000000000002E-2</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="33">
         <f t="shared" si="10"/>
         <v>674.19881926939206</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="33">
         <f t="shared" si="11"/>
         <v>3.7081049811228846E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="38">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
         <v>1.4</v>
       </c>
-      <c r="B39" s="39">
+      <c r="B39" s="33">
         <v>0.11799999999999999</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="33">
         <v>1.3129999999999999</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="33">
         <f t="shared" si="8"/>
         <v>0.11936363636363635</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="33">
         <v>10000</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="33">
         <v>0.77</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="33">
         <f t="shared" si="9"/>
         <v>9.1909999999999992E-2</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="33">
         <f t="shared" si="10"/>
         <v>702.62749505003478</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="33">
         <f t="shared" si="11"/>
         <v>3.5580731150038077E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="38">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
         <v>1.5</v>
       </c>
-      <c r="B40" s="39">
+      <c r="B40" s="33">
         <v>0.13300000000000001</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="33">
         <v>1.4830000000000001</v>
       </c>
-      <c r="D40" s="39">
+      <c r="D40" s="33">
         <f t="shared" si="8"/>
         <v>0.13481818181818184</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="33">
         <v>10000</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F40" s="33">
         <v>0.77</v>
       </c>
-      <c r="G40" s="39">
+      <c r="G40" s="33">
         <f t="shared" si="9"/>
         <v>0.10381000000000001</v>
       </c>
-      <c r="H40" s="39">
+      <c r="H40" s="33">
         <f t="shared" si="10"/>
         <v>743.52344594933356</v>
       </c>
-      <c r="I40" s="39">
+      <c r="I40" s="33">
         <f t="shared" si="11"/>
         <v>3.3623687506020614E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1.6</v>
       </c>
@@ -4342,7 +9230,7 @@
         <v>3.137247014988568E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1.7</v>
       </c>
@@ -4375,7 +9263,7 @@
         <v>2.8667497799941332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1.8</v>
       </c>
@@ -4408,7 +9296,7 @@
         <v>2.5844671201814058E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1.9</v>
       </c>
@@ -4447,7 +9335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -4484,20 +9372,12 @@
         <v>618.74095449962601</v>
       </c>
       <c r="L45">
-        <f>AVERAGE(I26:I45)</f>
-        <v>5.7605744986850706E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
+        <f>AVERAGE(I28:I45)</f>
+        <v>4.1240755700154209E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4507,7 +9387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -4515,17 +9395,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -4548,7 +9428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>34.700000000000003</v>
       </c>
@@ -4573,7 +9453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30.1</v>
       </c>
@@ -4598,7 +9478,7 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>25.7</v>
       </c>
@@ -4623,7 +9503,7 @@
         <v>24.15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25.1</v>
       </c>
@@ -4648,7 +9528,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34</v>
       </c>

--- a/Testing/SalinityTesting.xlsx
+++ b/Testing/SalinityTesting.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuhay\Documents\GitHub\EEE4022S_Thesis\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a821379690db2de/University/5FifthYear/Sem2/EEE4022S/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA03D42-4042-4658-9415-AF114B86163D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{A256115B-961D-4FC0-839A-2C9DB839FB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E5EAA4-3E31-47A8-B3B3-5C16FBF2E9B8}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="984" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="984" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC Testing" sheetId="2" r:id="rId1"/>
     <sheet name="ResistorPointTests" sheetId="5" r:id="rId2"/>
     <sheet name="ResistorSweepTest" sheetId="6" r:id="rId3"/>
-    <sheet name="StandardSolutionTesting" sheetId="3" r:id="rId4"/>
-    <sheet name="StandardSolutionSweep" sheetId="4" r:id="rId5"/>
-    <sheet name="SalinityTesting" sheetId="1" r:id="rId6"/>
+    <sheet name="VoltageRepeat" sheetId="7" r:id="rId4"/>
+    <sheet name="StandardSolutionTesting" sheetId="3" r:id="rId5"/>
+    <sheet name="StandardSolutionSweep" sheetId="4" r:id="rId6"/>
+    <sheet name="SalinityTesting" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Gain</t>
   </si>
@@ -92,9 +93,6 @@
   </si>
   <si>
     <t>V In</t>
-  </si>
-  <si>
-    <t>V Probe</t>
   </si>
   <si>
     <t>V Amp</t>
@@ -171,6 +169,39 @@
   <si>
     <t>Multimeter Resistor</t>
   </si>
+  <si>
+    <t>Vprobe</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Input Voltage</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>V Input</t>
+  </si>
+  <si>
+    <t>Resistance A</t>
+  </si>
+  <si>
+    <t>Resistance B</t>
+  </si>
 </sst>
 </file>
 
@@ -180,7 +211,7 @@
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -208,12 +239,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -371,37 +402,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -615,11 +615,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,39 +695,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -721,36 +725,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2950,6 +2959,1738 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA" b="1"/>
+              <a:t>Voltage Reading Taken</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" b="1" baseline="0"/>
+              <a:t> Over Electrodes on Seperate Occasions in Same Solution  </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VoltageRepeat!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>VoltageRepeat!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VoltageRepeat!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21C5-492D-B13E-D1375EE11479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VoltageRepeat!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>VoltageRepeat!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VoltageRepeat!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21C5-492D-B13E-D1375EE11479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VoltageRepeat!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>VoltageRepeat!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VoltageRepeat!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-21C5-492D-B13E-D1375EE11479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1638568096"/>
+        <c:axId val="1638569536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1638568096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1100" b="1"/>
+                  <a:t>DAC Output Voltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1638569536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1638569536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>Electrode</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" baseline="0"/>
+                  <a:t> Voltage</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ZA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-ZA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1638568096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA" sz="1800" b="1"/>
+              <a:t>Resistance vs Input Voltage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>StandardSolutionSweep!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resistance A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>StandardSolutionSweep!$O$2:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>StandardSolutionSweep!$P$2:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5116000073826619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3339282862537689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1607484423233538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5143189135539465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6230352282508402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1414656952507105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.696056576216467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4782906066416697</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8348398124886707</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0438763117740484</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9051918815667177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9653918336785399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2731173567903902</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3103429053230107</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4625932482229596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6218266848319258</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1606217379046049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0235127375804058</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.9626753308503062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5552058641913842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9D0-4BF5-AAAD-8A789E4E9DE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>StandardSolutionSweep!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resistance B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>StandardSolutionSweep!$O$2:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>StandardSolutionSweep!$Q$2:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3479274348839565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3463260468791143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7753331922995566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6041255796599332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2789610168770995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4584811923349896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.518960374946742</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5941826224833777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6616101162611558</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8992794988561776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1164258170061938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.34508762042777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.607876896588829</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0088567262515546</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.889607353755637</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.958570898417733</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9186927872224278</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9829386956860811</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.4939329050678083</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1161049915162238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9D0-4BF5-AAAD-8A789E4E9DE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="517073023"/>
+        <c:axId val="517064383"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517073023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1100" b="1"/>
+                  <a:t>Input Voltage</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ZA" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517064383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517064383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1050" b="1"/>
+                  <a:t>Resistance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517073023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3070,6 +4811,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4599,6 +6420,1038 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4716,6 +7569,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB45C659-003B-EE38-A1A9-C635CFB17DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0358A5A-582F-5E80-AA4F-4EEC2CB1FF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>580160</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>40524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68579</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1874B8F-F4C1-5A00-4962-2788F831A0BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6140,7 +9075,7 @@
         <v>3.2930000000000001</v>
       </c>
       <c r="C35" s="9">
-        <f t="shared" ref="C35:C66" si="5">B35/A35</f>
+        <f t="shared" ref="C35:C52" si="5">B35/A35</f>
         <v>0.99787878787878803</v>
       </c>
       <c r="D35" s="10">
@@ -6559,513 +9494,513 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="50" t="s">
+      <c r="J2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="K2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="48"/>
-    </row>
-    <row r="3" spans="2:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45">
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="35">
         <v>2</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="36">
         <v>0</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="36">
         <v>100</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="36">
         <v>0.7782</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="36">
         <v>0</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="36">
         <v>0</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="36">
         <v>0</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="36">
         <v>0</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="36">
         <v>0</v>
       </c>
-      <c r="K3" s="47" t="str">
+      <c r="K3" s="37" t="str">
         <f>IF(AND(H3&gt;J3,H3&lt;I3),"Inaccurate","Accurate")</f>
         <v>Accurate</v>
       </c>
-      <c r="L3" s="36"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="39">
+      <c r="B4" s="30">
         <v>2</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="31">
         <v>10</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="31">
         <v>100</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="31">
         <v>0.77869999999999995</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="31">
         <v>0.2334</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="31">
         <f>F4*E4</f>
         <v>0.18174857999999999</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="31">
         <f>(D4*G4)/(B4-G4)</f>
         <v>9.9957892511916757</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="31">
         <f>C4*0.95</f>
         <v>9.5</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="31">
         <f>C4*1.05</f>
         <v>10.5</v>
       </c>
-      <c r="K4" s="38" t="str">
+      <c r="K4" s="29" t="str">
         <f>IF(AND(H4&gt;J4,H4&lt;I4),"Inaccurate","Accurate")</f>
         <v>Accurate</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="39">
+      <c r="B5" s="30">
         <v>2</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="31">
         <v>12</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="31">
         <v>100</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="31">
         <v>0.77559999999999996</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="31">
         <v>0.27629999999999999</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="31">
         <f t="shared" ref="G5:G15" si="0">F5*E5</f>
         <v>0.21429827999999998</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="31">
         <f t="shared" ref="H5:H15" si="1">(D5*G5)/(B5-G5)</f>
         <v>12.00078812714589</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="31">
         <f t="shared" ref="I5:I15" si="2">C5*0.95</f>
         <v>11.399999999999999</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="31">
         <f t="shared" ref="J5:J15" si="3">C5*1.05</f>
         <v>12.600000000000001</v>
       </c>
-      <c r="K5" s="38" t="str">
+      <c r="K5" s="29" t="str">
         <f t="shared" ref="K5:K15" si="4">IF(AND(H5&gt;J5,H5&lt;I5),"Inaccurate","Accurate")</f>
         <v>Accurate</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="39">
+      <c r="B6" s="30">
         <v>2</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="31">
         <v>15</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="31">
         <v>100</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="31">
         <v>0.77829999999999999</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="31">
         <v>0.33529999999999999</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="31">
         <f t="shared" si="0"/>
         <v>0.26096398999999998</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="31">
         <f t="shared" si="1"/>
         <v>15.006244177772949</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="31">
         <f t="shared" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="31">
         <f t="shared" si="3"/>
         <v>15.75</v>
       </c>
-      <c r="K6" s="38" t="str">
+      <c r="K6" s="29" t="str">
         <f t="shared" si="4"/>
         <v>Accurate</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="39">
+      <c r="B7" s="30">
         <v>2</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="31">
         <v>18</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="31">
         <v>100</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="31">
         <v>0.7752</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="31">
         <v>0.39579999999999999</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="31">
         <f t="shared" si="0"/>
         <v>0.30682416000000001</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="31">
         <f t="shared" si="1"/>
         <v>18.121222424246263</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="31">
         <f t="shared" si="2"/>
         <v>17.099999999999998</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="31">
         <f t="shared" si="3"/>
         <v>18.900000000000002</v>
       </c>
-      <c r="K7" s="38" t="str">
+      <c r="K7" s="29" t="str">
         <f t="shared" si="4"/>
         <v>Accurate</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="39">
+      <c r="B8" s="30">
         <v>2</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="31">
         <v>22</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="31">
         <v>100</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="31">
         <v>0.78010000000000002</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="31">
         <v>0.46260000000000001</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="31">
         <f t="shared" si="0"/>
         <v>0.36087426</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="31">
         <f t="shared" si="1"/>
         <v>22.016264597248046</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="31">
         <f t="shared" si="2"/>
         <v>20.9</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="31">
         <f t="shared" si="3"/>
         <v>23.1</v>
       </c>
-      <c r="K8" s="38" t="str">
+      <c r="K8" s="29" t="str">
         <f t="shared" si="4"/>
         <v>Accurate</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="39">
+      <c r="B9" s="30">
         <v>2</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="31">
         <v>27</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="31">
         <v>100</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="31">
         <v>0.77559999999999996</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="31">
         <v>0.54820000000000002</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="31">
         <f t="shared" si="0"/>
         <v>0.42518391999999999</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="31">
         <f t="shared" si="1"/>
         <v>26.998957236961918</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="31">
         <f t="shared" si="2"/>
         <v>25.65</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="31">
         <f t="shared" si="3"/>
         <v>28.35</v>
       </c>
-      <c r="K9" s="38" t="str">
+      <c r="K9" s="29" t="str">
         <f t="shared" si="4"/>
         <v>Accurate</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="39">
+      <c r="B10" s="30">
         <v>2</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="31">
         <v>33</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="31">
         <v>100</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="31">
         <v>0.77339999999999998</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="31">
         <v>0.64190000000000003</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="31">
         <f t="shared" si="0"/>
         <v>0.49644546000000001</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="31">
         <f t="shared" si="1"/>
         <v>33.018121178364432</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="31">
         <f t="shared" si="2"/>
         <v>31.349999999999998</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="31">
         <f t="shared" si="3"/>
         <v>34.65</v>
       </c>
-      <c r="K10" s="38" t="str">
+      <c r="K10" s="29" t="str">
         <f t="shared" si="4"/>
         <v>Accurate</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="39">
+      <c r="B11" s="30">
         <v>2</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="31">
         <v>39</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="31">
         <v>100</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="31">
         <v>0.77539999999999998</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="31">
         <v>0.72409999999999997</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="31">
         <f t="shared" si="0"/>
         <v>0.56146713999999998</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="31">
         <f t="shared" si="1"/>
         <v>39.030539768135704</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="31">
         <f t="shared" si="2"/>
         <v>37.049999999999997</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="31">
         <f t="shared" si="3"/>
         <v>40.950000000000003</v>
       </c>
-      <c r="K11" s="38" t="str">
+      <c r="K11" s="29" t="str">
         <f t="shared" si="4"/>
         <v>Accurate</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="39">
+      <c r="B12" s="30">
         <v>2</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="31">
         <v>47</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="31">
         <v>100</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="31">
         <v>0.77529999999999999</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="31">
         <v>0.82530000000000003</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="31">
         <f t="shared" si="0"/>
         <v>0.63985509000000007</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="31">
         <f t="shared" si="1"/>
         <v>47.043155864914432</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="31">
         <f t="shared" si="2"/>
         <v>44.65</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="31">
         <f t="shared" si="3"/>
         <v>49.35</v>
       </c>
-      <c r="K12" s="38" t="str">
+      <c r="K12" s="29" t="str">
         <f t="shared" si="4"/>
         <v>Accurate</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="39">
+      <c r="B13" s="30">
         <v>2</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="31">
         <v>56</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="31">
         <v>100</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="31">
         <v>0.7782</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="31">
         <v>0.92290000000000005</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="31">
         <f t="shared" si="0"/>
         <v>0.71820078000000009</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="31">
         <f t="shared" si="1"/>
         <v>56.030676941744446</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="31">
         <f t="shared" si="2"/>
         <v>53.199999999999996</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="31">
         <f t="shared" si="3"/>
         <v>58.800000000000004</v>
       </c>
-      <c r="K13" s="38" t="str">
+      <c r="K13" s="29" t="str">
         <f t="shared" si="4"/>
         <v>Accurate</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="39">
+      <c r="B14" s="30">
         <v>2</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="31">
         <v>68</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="31">
         <v>100</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="31">
         <v>0.78120000000000001</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="31">
         <v>1.0367999999999999</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="31">
         <f t="shared" si="0"/>
         <v>0.80994815999999992</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="31">
         <f t="shared" si="1"/>
         <v>68.059905692847778</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="31">
         <f t="shared" si="2"/>
         <v>64.599999999999994</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="31">
         <f t="shared" si="3"/>
         <v>71.400000000000006</v>
       </c>
-      <c r="K14" s="38" t="str">
+      <c r="K14" s="29" t="str">
         <f t="shared" si="4"/>
         <v>Accurate</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41">
+      <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="33">
         <v>82</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="33">
         <v>100</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="33">
         <v>0.77749999999999997</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="33">
         <v>1.1289</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="33">
         <f t="shared" si="0"/>
         <v>0.87771975000000002</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="33">
         <f t="shared" si="1"/>
         <v>78.20860698564374</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="33">
         <f t="shared" si="2"/>
         <v>77.899999999999991</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="33">
         <f t="shared" si="3"/>
         <v>86.100000000000009</v>
       </c>
-      <c r="K15" s="43" t="str">
+      <c r="K15" s="34" t="str">
         <f t="shared" si="4"/>
         <v>Accurate</v>
       </c>
@@ -7093,10 +10028,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7210,11 +10145,602 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F280CD-8FD4-464C-96D2-2A977ED8AA10}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E22" si="0">AVERAGE(B3:D3)</f>
+        <v>3.3666666666666671E-2</v>
+      </c>
+      <c r="F3">
+        <f>(E3*100)/(A3-E3)</f>
+        <v>50.753768844221121</v>
+      </c>
+      <c r="G3">
+        <f>0.01/(F3*0.0004)</f>
+        <v>0.4925742574257424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.9666666666666671E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F22" si="1">(E4*100)/(A4-E4)</f>
+        <v>33.037694013303771</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G22" si="2">0.01/(F4*0.0004)</f>
+        <v>0.75671140939597314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>28.755364806866954</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.86940298507462688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.4</v>
+      </c>
+      <c r="B6">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C6">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8.3666666666666667E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>26.448893572181245</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.94521912350597603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>9.6666666666666679E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>23.966942148760335</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1.0431034482758619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <v>0.11</v>
+      </c>
+      <c r="C8">
+        <v>0.107</v>
+      </c>
+      <c r="D8">
+        <v>0.11</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.109</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>22.19959266802444</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>1.1261467889908257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <v>0.121</v>
+      </c>
+      <c r="C9">
+        <v>0.121</v>
+      </c>
+      <c r="D9">
+        <v>0.122</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.12133333333333333</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>20.967741935483872</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>1.1923076923076921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.8</v>
+      </c>
+      <c r="B10">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.13233333333333333</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>19.820269595606586</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1.2613350125944587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.14533333333333331</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>19.25795053003533</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1.2981651376146792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.156</v>
+      </c>
+      <c r="C12">
+        <v>0.154</v>
+      </c>
+      <c r="D12">
+        <v>0.158</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.156</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>18.48341232227488</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1.3525641025641026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>17.857142857142851</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.2</v>
+      </c>
+      <c r="B14">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.17699999999999996</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>17.302052785923753</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1.4449152542372881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.3</v>
+      </c>
+      <c r="B15">
+        <v>0.185</v>
+      </c>
+      <c r="C15">
+        <v>0.187</v>
+      </c>
+      <c r="D15">
+        <v>0.185</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.18566666666666665</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>16.661681124738255</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1.5004488330341117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.4</v>
+      </c>
+      <c r="B16">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.19533333333333336</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>16.214720531267297</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1.5418088737201363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.5</v>
+      </c>
+      <c r="B17">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.20299999999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>15.651503469545103</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1.5972906403940887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.6</v>
+      </c>
+      <c r="B18">
+        <v>0.21</v>
+      </c>
+      <c r="C18">
+        <v>0.216</v>
+      </c>
+      <c r="D18">
+        <v>0.214</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1.6249999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.7</v>
+      </c>
+      <c r="B19">
+        <v>0.222</v>
+      </c>
+      <c r="C19">
+        <v>0.224</v>
+      </c>
+      <c r="D19">
+        <v>0.222</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.22266666666666668</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>15.072202166064985</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1.6586826347305388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.8</v>
+      </c>
+      <c r="B20">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>14.576702737110123</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>1.7150655021834058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.9</v>
+      </c>
+      <c r="B21">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.23966666666666667</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>14.434852439269223</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>1.7319193324061197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0.251</v>
+      </c>
+      <c r="C22">
+        <v>0.247</v>
+      </c>
+      <c r="D22">
+        <v>0.246</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.248</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>14.155251141552512</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>1.7661290322580645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f>AVERAGE(F3:F22)</f>
+        <v>21.0501177536994</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(G3:G22)</f>
+        <v>1.3159395030356846</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D880E36-7470-46DE-9BE4-3AFE9239FEF3}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7225,21 +10751,22 @@
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" s="13" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -7264,10 +10791,22 @@
       <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>1.2</v>
@@ -7286,46 +10825,60 @@
         <v>7.8709381818181823E-2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G22" si="1">(A3*F3)/(B3-F3)</f>
-        <v>701.95345026439031</v>
+        <f t="shared" ref="G3:G12" si="1">(A3*F3)/(B3-F3)</f>
+        <v>7.0195345026439027</v>
       </c>
       <c r="H3" s="21">
         <f t="shared" ref="H3:H6" si="2">0.01/(G3*0.0004)</f>
-        <v>3.5614897242237022E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.5614897242237027</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="L3">
+        <f>(10000*K3)/(J3-K3)</f>
+        <v>660.98081023454165</v>
+      </c>
+      <c r="M3">
+        <f>0.01/(L3*0.0004)</f>
+        <v>3.782258064516128E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>1.2</v>
       </c>
       <c r="C4">
-        <v>8.8999999999999996E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D4">
-        <v>0.997</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="E4">
         <v>0.77859999999999996</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>7.0569472727272722E-2</v>
+        <v>5.1033690909090906E-2</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>624.8234931074436</v>
+        <v>4.4417047310525621</v>
       </c>
       <c r="H4" s="21">
         <f t="shared" si="2"/>
-        <v>4.0011299632264373E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.6284695885391924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>1.3</v>
@@ -7345,16 +10898,16 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>791.34071126481274</v>
+        <v>7.9134071126481276</v>
       </c>
       <c r="H5" s="21">
         <f t="shared" si="2"/>
-        <v>3.1591954823153343E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.1591954823153348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>1.3</v>
@@ -7374,16 +10927,16 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>726.1924039940709</v>
+        <v>7.261924039940709</v>
       </c>
       <c r="H6" s="21">
         <f t="shared" si="2"/>
-        <v>3.4426138117803991E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.442613811780399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>1.4</v>
@@ -7402,17 +10955,17 @@
         <v>9.2305163636363652E-2</v>
       </c>
       <c r="G7">
-        <f>(A7*F7)/(B7-F7)</f>
-        <v>705.86165112527794</v>
+        <f t="shared" si="1"/>
+        <v>7.0586165112527803</v>
       </c>
       <c r="H7" s="21">
         <f t="shared" ref="H7:H12" si="3">0.01/(G7*0.0004)</f>
-        <v>3.541770538198985E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.5417705381989846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <v>1.4</v>
@@ -7431,17 +10984,17 @@
         <v>0.1021548</v>
       </c>
       <c r="G8">
-        <f>(A8*F8)/(B8-F8)</f>
-        <v>787.11082030430146</v>
+        <f t="shared" si="1"/>
+        <v>7.8711082030430148</v>
       </c>
       <c r="H8" s="21">
         <f t="shared" si="3"/>
-        <v>3.1761728279043173E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.1761728279043169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>1.5</v>
@@ -7461,16 +11014,16 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>797.21993181195694</v>
+        <v>7.9721993181195696</v>
       </c>
       <c r="H9" s="21">
         <f t="shared" si="3"/>
-        <v>3.1358975111396029E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.135897511139603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <v>1.5</v>
@@ -7490,16 +11043,16 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>681.37148421443794</v>
+        <v>6.8137148421443801</v>
       </c>
       <c r="H10" s="21">
         <f t="shared" si="3"/>
-        <v>3.6690704819886656E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.6690704819886646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>1.6</v>
@@ -7519,16 +11072,16 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>1074.5987742080345</v>
+        <v>10.745987742080345</v>
       </c>
       <c r="H11" s="21">
         <f t="shared" si="3"/>
-        <v>2.3264497038371069E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.3264497038371066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>1.6</v>
@@ -7548,324 +11101,38 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>680.0992540460403</v>
+        <v>6.8009925404604026</v>
       </c>
       <c r="H12" s="21">
         <f t="shared" si="3"/>
-        <v>3.6759340421666731E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
-        <v>1000</v>
-      </c>
-      <c r="B13" s="27">
-        <v>1.2</v>
-      </c>
-      <c r="C13" s="27">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="D13" s="27">
-        <v>3.3</v>
-      </c>
-      <c r="E13" s="27">
-        <v>0.77569999999999995</v>
-      </c>
-      <c r="F13" s="27">
-        <f>C13*E13</f>
-        <v>0.47860689999999995</v>
-      </c>
+        <v>3.6759340421666735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="27">
-        <f>(A13*F13)/(B13-F13)</f>
-        <v>663.44812557813475</v>
+        <f>AVERAGE(G3:G12)</f>
+        <v>7.3899189543385786</v>
       </c>
       <c r="H13" s="28">
-        <f>0.01/(0.0004*G13)</f>
-        <v>3.76819212176005E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B14">
-        <v>1.2</v>
-      </c>
-      <c r="C14">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="D14">
-        <v>3.3</v>
-      </c>
-      <c r="E14">
-        <v>0.77569999999999995</v>
-      </c>
-      <c r="F14">
-        <f>C14*E14</f>
-        <v>0.45688729999999994</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>614.82908312561472</v>
-      </c>
-      <c r="H14" s="21">
-        <f>0.01/(0.0004*G14)</f>
-        <v>4.0661706946111216E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B15">
-        <v>1.3</v>
-      </c>
-      <c r="C15">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="D15">
-        <v>3.3</v>
-      </c>
-      <c r="E15">
-        <v>0.78010000000000002</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ref="F15:F22" si="4">C15*E15</f>
-        <v>0.50940530000000006</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>644.33179225714525</v>
-      </c>
-      <c r="H15" s="21">
-        <f t="shared" ref="H15:H22" si="5">0.01/(0.0004*G15)</f>
-        <v>3.8799885866911861E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B16">
-        <v>1.3</v>
-      </c>
-      <c r="C16">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="D16">
-        <v>3.3</v>
-      </c>
-      <c r="E16">
-        <v>0.78010000000000002</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="4"/>
-        <v>0.52344710000000005</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>674.06496067428259</v>
-      </c>
-      <c r="H16" s="21">
-        <f t="shared" si="5"/>
-        <v>3.7088413518768168E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B17">
-        <v>1.4</v>
-      </c>
-      <c r="C17">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="D17">
-        <v>3.3</v>
-      </c>
-      <c r="E17">
-        <v>0.77559999999999996</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="4"/>
-        <v>0.55145159999999993</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>649.87642425582328</v>
-      </c>
-      <c r="H17" s="21">
-        <f t="shared" si="5"/>
-        <v>3.8468852026179626E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B18">
-        <v>1.4</v>
-      </c>
-      <c r="C18">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="D18">
-        <v>3.3</v>
-      </c>
-      <c r="E18">
-        <v>0.77559999999999996</v>
-      </c>
-      <c r="F18">
-        <f>C18*E18</f>
-        <v>0.58868039999999999</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>725.5838512960861</v>
-      </c>
-      <c r="H18" s="21">
-        <f t="shared" si="5"/>
-        <v>3.4455011581836247E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B19">
-        <v>1.5</v>
-      </c>
-      <c r="C19">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="D19">
-        <v>3.3</v>
-      </c>
-      <c r="E19">
-        <v>0.76980000000000004</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>0.61737960000000003</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>699.48485215161577</v>
-      </c>
-      <c r="H19" s="21">
-        <f t="shared" si="5"/>
-        <v>3.5740588124388954E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B20">
-        <v>1.5</v>
-      </c>
-      <c r="C20">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="D20">
-        <v>3.3</v>
-      </c>
-      <c r="E20">
-        <v>0.76980000000000004</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="4"/>
-        <v>0.64047359999999998</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>745.14709495833984</v>
-      </c>
-      <c r="H20" s="21">
-        <f t="shared" si="5"/>
-        <v>3.3550422687211465E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B21">
-        <v>1.6</v>
-      </c>
-      <c r="C21">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D21">
-        <v>3.3</v>
-      </c>
-      <c r="E21">
-        <v>0.77949999999999997</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="4"/>
-        <v>0.70232949999999994</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>782.39120033464371</v>
-      </c>
-      <c r="H21" s="21">
-        <f t="shared" si="5"/>
-        <v>3.1953324614728565E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B22">
-        <v>1.6</v>
-      </c>
-      <c r="C22">
-        <v>0.86</v>
-      </c>
-      <c r="D22">
-        <v>3.3</v>
-      </c>
-      <c r="E22">
-        <v>0.77049999999999996</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="4"/>
-        <v>0.66262999999999994</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>706.90335726554065</v>
-      </c>
-      <c r="H22" s="21">
-        <f t="shared" si="5"/>
-        <v>3.5365513182318946E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30">
-        <f>AVERAGE(G3:G22)</f>
-        <v>723.83163581189967</v>
-      </c>
-      <c r="H23" s="31">
-        <f>AVERAGE(H3:H22)</f>
-        <v>3.5033144031693393E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
+        <f>AVERAGE(H3:H12)</f>
+        <v>3.5317063712093981</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(H3,H5,H7,H9)</f>
+        <v>3.3495883139694067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
         <v>13</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7874,47 +11141,54 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F13" formula="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C2B917-F422-4BD5-B274-4417F295C9B2}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1">
+        <v>0.01</v>
+      </c>
       <c r="J1">
-        <v>0.01</v>
-      </c>
-      <c r="K1">
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
@@ -7922,13 +11196,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>19</v>
@@ -7939,710 +11213,836 @@
       <c r="H2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <f>B3/11</f>
+        <v>4.5454545454545455E-4</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0.78</v>
+      </c>
+      <c r="F3">
+        <f>C3*E3</f>
+        <v>3.5454545454545455E-4</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D3">
-        <f>C3/11</f>
-        <v>4.5454545454545455E-4</v>
-      </c>
-      <c r="E3">
-        <v>10000</v>
-      </c>
-      <c r="F3">
-        <v>0.78</v>
-      </c>
-      <c r="G3">
-        <f>D3*F3</f>
-        <v>3.5454545454545455E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O3" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="47">
+        <v>1.5116000073826619</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>1.3479274348839565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.1</v>
       </c>
       <c r="B4">
-        <v>2E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" ref="C4:C23" si="0">B4/11</f>
+        <v>1.9090909090909091E-3</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D23" si="0">C4/11</f>
-        <v>1.9090909090909091E-3</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F4">
-        <v>0.78</v>
+        <f>C4*E4</f>
+        <v>1.4890909090909091E-3</v>
       </c>
       <c r="G4">
-        <f>D4*F4</f>
-        <v>1.4890909090909091E-3</v>
+        <f t="shared" ref="G4:G23" si="1">(D4*F4)/(A4-F4)</f>
+        <v>1.5116000073826619</v>
       </c>
       <c r="H4">
-        <f>(E4*G4)/(A4-G4)</f>
-        <v>151.16000073826618</v>
-      </c>
-      <c r="I4">
-        <f>$J$1/(H4*$K$1)</f>
-        <v>0.1653876678876679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f>$I$1/(G4*$J$1)</f>
+        <v>16.538766788766786</v>
+      </c>
+      <c r="O4">
+        <v>0.2</v>
+      </c>
+      <c r="P4">
+        <v>3.3339282862537689</v>
+      </c>
+      <c r="Q4">
+        <v>5.3463260468791143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>4.0000000000000001E-3</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C5">
-        <v>4.5999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.2727272727272719E-3</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4.1818181818181815E-3</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F5">
-        <v>0.78</v>
+        <f t="shared" ref="F5:F45" si="2">C5*E5</f>
+        <v>6.4527272727272723E-3</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G23" si="1">D5*F5</f>
-        <v>3.2618181818181817E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.3339282862537689</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H23" si="2">(E5*G5)/(A5-G5)</f>
-        <v>165.79487274273143</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I23" si="3">$J$1/(H5*$K$1)</f>
-        <v>0.15078874024526201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H5:H23" si="3">$I$1/(G5*$J$1)</f>
+        <v>7.4986615948154416</v>
+      </c>
+      <c r="O5">
+        <v>0.3</v>
+      </c>
+      <c r="P5">
+        <v>4.1607484423233538</v>
+      </c>
+      <c r="Q5">
+        <v>5.7753331922995566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.3</v>
       </c>
       <c r="B6">
-        <v>8.9999999999999993E-3</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="C6">
-        <v>0.14299999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.5363636363636364E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999999E-2</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F6">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>1.1983636363636365E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>1.014E-2</v>
+        <v>4.1607484423233538</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>349.82405299109911</v>
-      </c>
-      <c r="I6">
         <f t="shared" si="3"/>
-        <v>7.1464497041420133E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.0085343650432392</v>
+      </c>
+      <c r="O6">
+        <v>0.4</v>
+      </c>
+      <c r="P6">
+        <v>6.5143189135539465</v>
+      </c>
+      <c r="Q6">
+        <v>6.6041255796599332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.4</v>
       </c>
       <c r="B7">
-        <v>1.9E-2</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="C7">
-        <v>0.222</v>
+        <f t="shared" si="0"/>
+        <v>3.1363636363636364E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>2.0181818181818183E-2</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F7">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>2.4463636363636364E-2</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>1.5741818181818183E-2</v>
+        <v>6.5143189135539465</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>409.66774233233343</v>
-      </c>
-      <c r="I7">
         <f t="shared" si="3"/>
-        <v>6.1025063525063511E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.8376997398736528</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>6.6230352282508402</v>
+      </c>
+      <c r="Q7">
+        <v>6.2789610168770995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
       <c r="B8">
-        <v>2.1000000000000001E-2</v>
+        <v>0.438</v>
       </c>
       <c r="C8">
-        <v>0.26900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>3.9818181818181815E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>2.4454545454545455E-2</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F8">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>3.1058181818181818E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>1.9074545454545455E-2</v>
+        <v>6.6230352282508402</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>396.62166504731408</v>
-      </c>
-      <c r="I8">
         <f t="shared" si="3"/>
-        <v>6.3032361071394524E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.7747043671701199</v>
+      </c>
+      <c r="O8">
+        <v>0.6</v>
+      </c>
+      <c r="P8">
+        <v>7.1414656952507105</v>
+      </c>
+      <c r="Q8">
+        <v>6.4584811923349896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.6</v>
       </c>
       <c r="B9">
-        <v>3.2000000000000001E-2</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="C9">
-        <v>0.42099999999999999</v>
+        <f t="shared" si="0"/>
+        <v>5.1272727272727268E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3.8272727272727271E-2</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F9">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>3.999272727272727E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>2.9852727272727274E-2</v>
+        <v>7.1414656952507105</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>523.59677403924354</v>
-      </c>
-      <c r="I9">
         <f t="shared" si="3"/>
-        <v>4.7746665448565671E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.5006819421713038</v>
+      </c>
+      <c r="O9">
+        <v>0.7</v>
+      </c>
+      <c r="P9">
+        <v>5.696056576216467</v>
+      </c>
+      <c r="Q9">
+        <v>6.518960374946742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.7</v>
       </c>
       <c r="B10">
-        <v>4.1000000000000002E-2</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="C10">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="D10">
         <f t="shared" si="0"/>
         <v>4.8363636363636366E-2</v>
       </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
       <c r="E10">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F10">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>3.7723636363636369E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>3.7723636363636369E-2</v>
+        <v>5.696056576216467</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>569.60565762164674</v>
-      </c>
-      <c r="I10">
         <f t="shared" si="3"/>
-        <v>4.3890013495276638E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.3890013495276641</v>
+      </c>
+      <c r="O10">
+        <v>0.8</v>
+      </c>
+      <c r="P10">
+        <v>7.4782906066416697</v>
+      </c>
+      <c r="Q10">
+        <v>6.5941826224833777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.8</v>
       </c>
       <c r="B11">
-        <v>4.9000000000000002E-2</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="C11">
-        <v>0.62</v>
+        <f t="shared" si="0"/>
+        <v>7.1363636363636365E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>5.6363636363636366E-2</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F11">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>5.5663636363636367E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>4.3963636363636364E-2</v>
+        <v>7.4782906066416697</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>581.50161127410888</v>
-      </c>
-      <c r="I11">
         <f t="shared" si="3"/>
-        <v>4.2992142266335819E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.3430099624367138</v>
+      </c>
+      <c r="O11">
+        <v>0.9</v>
+      </c>
+      <c r="P11">
+        <v>6.8348398124886707</v>
+      </c>
+      <c r="Q11">
+        <v>6.6616101162611558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.9</v>
       </c>
       <c r="B12">
-        <v>6.9000000000000006E-2</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="C12">
-        <v>0.71299999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.3818181818181824E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>6.4818181818181816E-2</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F12">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>5.7578181818181827E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>5.0558181818181822E-2</v>
+        <v>6.8348398124886707</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>595.19299304570063</v>
-      </c>
-      <c r="I12">
         <f t="shared" si="3"/>
-        <v>4.2003182651850247E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.6577302008336479</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>7.0438763117740484</v>
+      </c>
+      <c r="Q12">
+        <v>6.8992794988561776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>7.9000000000000001E-2</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="C13">
-        <v>0.81100000000000005</v>
+        <f t="shared" si="0"/>
+        <v>8.4363636363636363E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>7.3727272727272739E-2</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F13">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>6.580363636363637E-2</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>5.750727272727274E-2</v>
+        <v>7.0438763117740484</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>610.16144807483465</v>
-      </c>
-      <c r="I13">
         <f t="shared" si="3"/>
-        <v>4.097276233836035E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.549182139699381</v>
+      </c>
+      <c r="O13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P13">
+        <v>6.9051918815667177</v>
+      </c>
+      <c r="Q13">
+        <v>7.1164258170061938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B14">
-        <v>0.09</v>
+        <v>1.002</v>
       </c>
       <c r="C14">
-        <v>0.92800000000000005</v>
+        <f t="shared" si="0"/>
+        <v>9.1090909090909097E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>8.4363636363636363E-2</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F14">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>7.1050909090909095E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>6.580363636363637E-2</v>
+        <v>6.9051918815667177</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>636.2779707739694</v>
-      </c>
-      <c r="I14">
         <f t="shared" si="3"/>
-        <v>3.9291003536693188E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+        <v>3.6204641998055171</v>
+      </c>
+      <c r="O14">
         <v>1.2</v>
       </c>
-      <c r="B15" s="33">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="C15" s="33">
+      <c r="P14">
+        <v>6.9653918336785399</v>
+      </c>
+      <c r="Q14">
+        <v>7.34508762042777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B15">
         <v>1.1020000000000001</v>
       </c>
-      <c r="D15" s="33">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>0.10018181818181819</v>
       </c>
-      <c r="E15" s="33">
-        <v>10000</v>
-      </c>
-      <c r="F15" s="33">
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
         <v>0.78</v>
       </c>
-      <c r="G15" s="33">
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>7.8141818181818187E-2</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v>7.8141818181818187E-2</v>
-      </c>
-      <c r="H15" s="33">
-        <f t="shared" si="2"/>
-        <v>696.53918336785398</v>
-      </c>
-      <c r="I15" s="33">
+        <v>6.9653918336785399</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="3"/>
-        <v>3.589173530643585E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+        <v>3.5891735306435848</v>
+      </c>
+      <c r="O15">
         <v>1.3</v>
       </c>
-      <c r="B16" s="33">
-        <v>0.11</v>
-      </c>
-      <c r="C16" s="33">
+      <c r="P15">
+        <v>7.2731173567903902</v>
+      </c>
+      <c r="Q15">
+        <v>7.607876896588829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B16">
         <v>1.2430000000000001</v>
       </c>
-      <c r="D16" s="33">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>0.113</v>
       </c>
-      <c r="E16" s="33">
-        <v>10000</v>
-      </c>
-      <c r="F16" s="33">
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
         <v>0.78</v>
       </c>
-      <c r="G16" s="33">
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>8.814000000000001E-2</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>8.814000000000001E-2</v>
-      </c>
-      <c r="H16" s="33">
-        <f t="shared" si="2"/>
-        <v>727.31173567903897</v>
-      </c>
-      <c r="I16" s="33">
+        <v>7.2731173567903902</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="3"/>
-        <v>3.4373156342182881E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+        <v>3.437315634218288</v>
+      </c>
+      <c r="O16">
         <v>1.4</v>
       </c>
-      <c r="B17" s="33">
-        <v>0.121</v>
-      </c>
-      <c r="C17" s="33">
+      <c r="P16">
+        <v>7.3103429053230107</v>
+      </c>
+      <c r="Q16">
+        <v>8.0088567262515546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B17">
         <v>1.345</v>
       </c>
-      <c r="D17" s="33">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>0.12227272727272727</v>
       </c>
-      <c r="E17" s="33">
-        <v>10000</v>
-      </c>
-      <c r="F17" s="33">
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
         <v>0.78</v>
       </c>
-      <c r="G17" s="33">
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>9.5372727272727276E-2</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>9.5372727272727276E-2</v>
-      </c>
-      <c r="H17" s="33">
-        <f t="shared" si="2"/>
-        <v>731.03429053230116</v>
-      </c>
-      <c r="I17" s="33">
+        <v>7.3103429053230107</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="3"/>
-        <v>3.4198122199980939E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+        <v>3.4198122199980938</v>
+      </c>
+      <c r="O17">
         <v>1.5</v>
       </c>
-      <c r="B18" s="33">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="C18" s="33">
+      <c r="P17">
+        <v>7.4625932482229596</v>
+      </c>
+      <c r="Q17">
+        <v>7.889607353755637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B18">
         <v>1.4690000000000001</v>
       </c>
-      <c r="D18" s="33">
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>0.13354545454545455</v>
       </c>
-      <c r="E18" s="33">
-        <v>10000</v>
-      </c>
-      <c r="F18" s="33">
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
         <v>0.78</v>
       </c>
-      <c r="G18" s="33">
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.10416545454545455</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>0.10416545454545455</v>
-      </c>
-      <c r="H18" s="33">
-        <f t="shared" si="2"/>
-        <v>746.25932482229598</v>
-      </c>
-      <c r="I18" s="33">
+        <v>7.4625932482229596</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="3"/>
-        <v>3.3500418913965546E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.3500418913965544</v>
+      </c>
+      <c r="O18">
+        <v>1.6</v>
+      </c>
+      <c r="P18">
+        <v>7.6218266848319258</v>
+      </c>
+      <c r="Q18">
+        <v>7.958570898417733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1.6</v>
       </c>
       <c r="B19">
-        <v>0.14699999999999999</v>
+        <v>1.5980000000000001</v>
       </c>
       <c r="C19">
-        <v>1.673</v>
+        <f t="shared" si="0"/>
+        <v>0.14527272727272728</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.15209090909090908</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F19">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>0.11331272727272727</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>0.11863090909090909</v>
+        <v>7.6218266848319258</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
-        <v>800.8193894345892</v>
-      </c>
-      <c r="I19">
         <f t="shared" si="3"/>
-        <v>3.1218025349824517E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.2800535926318153</v>
+      </c>
+      <c r="O19">
+        <v>1.7</v>
+      </c>
+      <c r="P19">
+        <v>7.1606217379046049</v>
+      </c>
+      <c r="Q19">
+        <v>7.9186927872224278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.7</v>
       </c>
       <c r="B20">
-        <v>0.161</v>
+        <v>1.6020000000000001</v>
       </c>
       <c r="C20">
-        <v>1.7749999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14563636363636365</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.16136363636363635</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F20">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>0.11359636363636365</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>0.12586363636363634</v>
+        <v>7.1606217379046049</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
-        <v>799.5726372325372</v>
-      </c>
-      <c r="I20">
         <f t="shared" si="3"/>
-        <v>3.1266702780787289E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.4913169435641338</v>
+      </c>
+      <c r="O20">
+        <v>1.8</v>
+      </c>
+      <c r="P20">
+        <v>9.0235127375804058</v>
+      </c>
+      <c r="Q20">
+        <v>7.9829386956860811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1.8</v>
       </c>
       <c r="B21">
-        <v>0.191</v>
+        <v>2.101</v>
       </c>
       <c r="C21">
-        <v>2.101</v>
-      </c>
-      <c r="D21">
         <f t="shared" si="0"/>
         <v>0.191</v>
       </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
       <c r="E21">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F21">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>0.14898</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>0.14898</v>
+        <v>9.0235127375804058</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
-        <v>902.35127375804052</v>
-      </c>
-      <c r="I21">
         <f t="shared" si="3"/>
-        <v>2.7705396697543294E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.7705396697543287</v>
+      </c>
+      <c r="O21">
+        <v>1.9</v>
+      </c>
+      <c r="P21">
+        <v>8.9626753308503062</v>
+      </c>
+      <c r="Q21">
+        <v>8.4939329050678083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1.9</v>
       </c>
       <c r="B22">
-        <v>0.217</v>
+        <v>2.2040000000000002</v>
       </c>
       <c r="C22">
-        <v>2.3940000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.20036363636363638</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.21763636363636366</v>
+        <v>100</v>
       </c>
       <c r="E22">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F22">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>0.15628363636363637</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>0.16975636363636365</v>
+        <v>8.9626753308503062</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
-        <v>981.11248652318034</v>
-      </c>
-      <c r="I22">
         <f t="shared" si="3"/>
-        <v>2.5481277981277972E-2</v>
+        <v>2.7893457117595046</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>9.5552058641913842</v>
+      </c>
+      <c r="Q22">
+        <v>9.1161049915162238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
       <c r="B23">
-        <v>0.24299999999999999</v>
+        <v>2.46</v>
       </c>
       <c r="C23">
-        <v>2.6840000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.22363636363636363</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.24400000000000002</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <v>10000</v>
+        <v>0.78</v>
       </c>
       <c r="F23">
-        <v>0.78</v>
+        <f t="shared" si="2"/>
+        <v>0.17443636363636364</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>0.19032000000000002</v>
+        <v>9.5552058641913842</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
-        <v>1051.6776446664605</v>
-      </c>
-      <c r="I23">
         <f t="shared" si="3"/>
-        <v>2.3771542664985285E-2</v>
+        <v>2.6163748175943295</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE(G4:G23)</f>
+        <v>6.72893197305382</v>
       </c>
       <c r="K23">
-        <f>AVERAGE(H4:H23)</f>
-        <v>621.30413773487726</v>
-      </c>
-      <c r="L23">
-        <f>AVERAGE(I6:I23)</f>
-        <v>4.0545781645107991E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <f>AVERAGE(H6:H23)</f>
+        <v>3.5791656821178819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>16</v>
       </c>
@@ -8650,13 +12050,13 @@
         <v>17</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="19">
-        <v>1</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>19</v>
@@ -8667,11 +12067,8 @@
       <c r="H24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -8679,878 +12076,927 @@
         <v>0</v>
       </c>
       <c r="C25">
+        <f t="shared" ref="C25:C27" si="4">B25/11</f>
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D27" si="4">C25/11</f>
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>0.77</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E25">
-        <v>10000</v>
-      </c>
-      <c r="F25">
-        <v>0.77</v>
-      </c>
       <c r="G25">
-        <f t="shared" ref="G25:G28" si="5">D25*F25</f>
         <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.1</v>
       </c>
       <c r="B26">
-        <v>1E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C26">
-        <v>1.2999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.7272727272727272E-3</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
-        <v>1.1818181818181817E-3</v>
+        <v>100</v>
       </c>
       <c r="E26">
-        <v>10000</v>
+        <v>0.77</v>
       </c>
       <c r="F26">
-        <v>0.77</v>
+        <f>C26*E26</f>
+        <v>1.33E-3</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
-        <v>9.0999999999999989E-4</v>
+        <f t="shared" ref="G26:G45" si="5">(D26*F26)/(A26-F26)</f>
+        <v>1.3479274348839565</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H28" si="6">(E26*G26)/(A26-G26)</f>
-        <v>91.835704914723976</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ref="I26:I28" si="7">$J$1/(H26*$K$1)</f>
-        <v>0.27222527472527475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H26:H28" si="6">$I$1/(G26*$J$1)</f>
+        <v>18.546992481203006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.2</v>
       </c>
       <c r="B27">
-        <v>4.0000000000000001E-3</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C27">
-        <v>5.0999999999999997E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.3181818181818182E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
-        <v>4.6363636363636364E-3</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>10000</v>
+        <v>0.77</v>
       </c>
       <c r="F27">
-        <v>0.77</v>
+        <f t="shared" si="2"/>
+        <v>1.0149999999999999E-2</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>3.5700000000000003E-3</v>
+        <v>5.3463260468791143</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
-        <v>181.74413276994349</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="7"/>
-        <v>0.13755602240896356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.6761083743842367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.3</v>
       </c>
       <c r="B28">
-        <v>0.01</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="C28">
-        <v>0.14499999999999999</v>
+        <f t="shared" ref="C28:C45" si="7">B28/11</f>
+        <v>2.1272727272727273E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D45" si="8">C28/11</f>
-        <v>1.3181818181818182E-2</v>
+        <v>100</v>
       </c>
       <c r="E28">
-        <v>10000</v>
+        <v>0.77</v>
       </c>
       <c r="F28">
-        <v>0.77</v>
+        <f t="shared" si="2"/>
+        <v>1.6380000000000002E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
-        <v>1.0149999999999999E-2</v>
+        <v>5.7753331922995566</v>
       </c>
       <c r="H28">
         <f t="shared" si="6"/>
-        <v>350.18112816974298</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="7"/>
-        <v>7.1391625615763551E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.3287545787545776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.4</v>
       </c>
       <c r="B29">
-        <v>1.9E-2</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C29">
-        <v>0.217</v>
+        <f t="shared" si="7"/>
+        <v>3.2181818181818179E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="8"/>
-        <v>1.9727272727272729E-2</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>10000</v>
+        <v>0.77</v>
       </c>
       <c r="F29">
-        <v>0.77</v>
+        <f t="shared" si="2"/>
+        <v>2.478E-2</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G45" si="9">D29*F29</f>
-        <v>1.5190000000000002E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.6041255796599332</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H45" si="10">(E29*G29)/(A29-G29)</f>
-        <v>394.7402614277176</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ref="I29:I45" si="11">$J$1/(H29*$K$1)</f>
-        <v>6.3332784726793934E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H29:H45" si="8">$I$1/(G29*$J$1)</f>
+        <v>3.7855125100887808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.5</v>
       </c>
       <c r="B30">
-        <v>2.4E-2</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="C30">
-        <v>0.26400000000000001</v>
+        <f t="shared" si="7"/>
+        <v>3.8363636363636364E-2</v>
       </c>
       <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>0.77</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>2.954E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>6.2789610168770995</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="8"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="E30">
-        <v>10000</v>
-      </c>
-      <c r="F30">
-        <v>0.77</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="9"/>
-        <v>1.848E-2</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="10"/>
-        <v>383.78468184083738</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="11"/>
-        <v>6.5140692640692638E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.9815504400812456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.6</v>
       </c>
       <c r="B31">
-        <v>3.7999999999999999E-2</v>
+        <v>0.52</v>
       </c>
       <c r="C31">
-        <v>0.40400000000000003</v>
+        <f t="shared" si="7"/>
+        <v>4.7272727272727272E-2</v>
       </c>
       <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>0.77</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>6.4584811923349896</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="8"/>
-        <v>3.6727272727272726E-2</v>
-      </c>
-      <c r="E31">
-        <v>10000</v>
-      </c>
-      <c r="F31">
-        <v>0.77</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="9"/>
-        <v>2.828E-2</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="10"/>
-        <v>494.64772965787449</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="11"/>
-        <v>5.0541018387553038E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.8708791208791204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.7</v>
       </c>
       <c r="B32">
-        <v>4.8000000000000001E-2</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="C32">
-        <v>0.52</v>
+        <f t="shared" si="7"/>
+        <v>5.5636363636363637E-2</v>
       </c>
       <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>0.77</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>4.2840000000000003E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>6.518960374946742</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="8"/>
-        <v>4.7272727272727272E-2</v>
-      </c>
-      <c r="E32">
-        <v>10000</v>
-      </c>
-      <c r="F32">
-        <v>0.77</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="9"/>
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="10"/>
-        <v>548.52320675105489</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="11"/>
-        <v>4.5576923076923077E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.8349673202614367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.8</v>
       </c>
       <c r="B33">
-        <v>5.6000000000000001E-2</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="C33">
-        <v>0.61199999999999999</v>
+        <f t="shared" si="7"/>
+        <v>6.4272727272727273E-2</v>
       </c>
       <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>0.77</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>4.9489999999999999E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>6.5941826224833777</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="8"/>
-        <v>5.5636363636363637E-2</v>
-      </c>
-      <c r="E33">
-        <v>10000</v>
-      </c>
-      <c r="F33">
-        <v>0.77</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="9"/>
-        <v>4.2840000000000003E-2</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="10"/>
-        <v>565.79851022241007</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="11"/>
-        <v>4.418534080298786E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.7912204485754701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.9</v>
       </c>
       <c r="B34">
-        <v>6.4000000000000001E-2</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="C34">
-        <v>0.70699999999999996</v>
+        <f t="shared" si="7"/>
+        <v>7.3000000000000009E-2</v>
       </c>
       <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>0.77</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>5.621000000000001E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>6.6616101162611558</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="8"/>
-        <v>6.4272727272727273E-2</v>
-      </c>
-      <c r="E34">
-        <v>10000</v>
-      </c>
-      <c r="F34">
-        <v>0.77</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="9"/>
-        <v>4.9489999999999999E-2</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="10"/>
-        <v>581.88616242019498</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="11"/>
-        <v>4.2963730046474032E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.7528464685998926</v>
+      </c>
+      <c r="J34" s="43">
+        <f>AVERAGE(J23,J45)</f>
+        <v>6.8125480307124704</v>
+      </c>
+      <c r="K34" s="43">
+        <f>AVERAGE(K23,K45)</f>
+        <v>3.5278600550932344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35">
-        <v>7.2999999999999995E-2</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="C35">
-        <v>0.80300000000000005</v>
+        <f t="shared" si="7"/>
+        <v>8.3818181818181819E-2</v>
       </c>
       <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>0.77</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>6.454E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>6.8992794988561776</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="8"/>
-        <v>7.3000000000000009E-2</v>
-      </c>
-      <c r="E35">
-        <v>10000</v>
-      </c>
-      <c r="F35">
-        <v>0.77</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="9"/>
-        <v>5.621000000000001E-2</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="10"/>
-        <v>595.57740599073963</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="11"/>
-        <v>4.1976071873332133E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.6235667802912923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B36">
-        <v>8.5000000000000006E-2</v>
+        <v>1.044</v>
       </c>
       <c r="C36">
-        <v>0.92200000000000004</v>
+        <f t="shared" si="7"/>
+        <v>9.4909090909090915E-2</v>
       </c>
       <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>0.77</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>7.3080000000000006E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>7.1164258170061938</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="8"/>
-        <v>8.3818181818181819E-2</v>
-      </c>
-      <c r="E36">
-        <v>10000</v>
-      </c>
-      <c r="F36">
+        <v>3.5129994526546247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B37">
+        <v>1.173</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="7"/>
+        <v>0.10663636363636364</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
         <v>0.77</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="9"/>
-        <v>6.454E-2</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="10"/>
-        <v>623.29785795685007</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="11"/>
-        <v>4.0109234583204215E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
-        <v>1.2</v>
-      </c>
-      <c r="B37" s="33">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C37" s="33">
-        <v>1.044</v>
-      </c>
-      <c r="D37" s="33">
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>8.2110000000000002E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>7.34508762042777</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="8"/>
-        <v>9.4909090909090915E-2</v>
-      </c>
-      <c r="E37" s="33">
-        <v>10000</v>
-      </c>
-      <c r="F37" s="33">
+        <v>3.4036353671903545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B38">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="7"/>
+        <v>0.11936363636363635</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
         <v>0.77</v>
       </c>
-      <c r="G37" s="33">
-        <f t="shared" si="9"/>
-        <v>7.3080000000000006E-2</v>
-      </c>
-      <c r="H37" s="33">
-        <f t="shared" si="10"/>
-        <v>648.49323820679388</v>
-      </c>
-      <c r="I37" s="33">
-        <f t="shared" si="11"/>
-        <v>3.8550903119868633E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
-        <v>1.3</v>
-      </c>
-      <c r="B38" s="33">
-        <v>0.108</v>
-      </c>
-      <c r="C38" s="33">
-        <v>1.173</v>
-      </c>
-      <c r="D38" s="33">
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>9.1909999999999992E-2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>7.607876896588829</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="8"/>
-        <v>0.10663636363636364</v>
-      </c>
-      <c r="E38" s="33">
-        <v>10000</v>
-      </c>
-      <c r="F38" s="33">
+        <v>3.2860678925035365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B39">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="7"/>
+        <v>0.13481818181818184</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
         <v>0.77</v>
       </c>
-      <c r="G38" s="33">
-        <f t="shared" si="9"/>
-        <v>8.2110000000000002E-2</v>
-      </c>
-      <c r="H38" s="33">
-        <f t="shared" si="10"/>
-        <v>674.19881926939206</v>
-      </c>
-      <c r="I38" s="33">
-        <f t="shared" si="11"/>
-        <v>3.7081049811228846E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
-        <v>1.4</v>
-      </c>
-      <c r="B39" s="33">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="C39" s="33">
-        <v>1.3129999999999999</v>
-      </c>
-      <c r="D39" s="33">
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0.10381000000000001</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>8.0088567262515546</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="8"/>
-        <v>0.11936363636363635</v>
-      </c>
-      <c r="E39" s="33">
-        <v>10000</v>
-      </c>
-      <c r="F39" s="33">
+        <v>3.1215441672285897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B40">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="7"/>
+        <v>0.14245454545454544</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
         <v>0.77</v>
       </c>
-      <c r="G39" s="33">
-        <f t="shared" si="9"/>
-        <v>9.1909999999999992E-2</v>
-      </c>
-      <c r="H39" s="33">
-        <f t="shared" si="10"/>
-        <v>702.62749505003478</v>
-      </c>
-      <c r="I39" s="33">
-        <f t="shared" si="11"/>
-        <v>3.5580731150038077E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="B40" s="33">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="C40" s="33">
-        <v>1.4830000000000001</v>
-      </c>
-      <c r="D40" s="33">
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0.10969</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>7.889607353755637</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="8"/>
-        <v>0.13481818181818184</v>
-      </c>
-      <c r="E40" s="33">
-        <v>10000</v>
-      </c>
-      <c r="F40" s="33">
-        <v>0.77</v>
-      </c>
-      <c r="G40" s="33">
-        <f t="shared" si="9"/>
-        <v>0.10381000000000001</v>
-      </c>
-      <c r="H40" s="33">
-        <f t="shared" si="10"/>
-        <v>743.52344594933356</v>
-      </c>
-      <c r="I40" s="33">
-        <f t="shared" si="11"/>
-        <v>3.3623687506020614E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.1687254991339229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1.6</v>
       </c>
       <c r="B41">
-        <v>0.153</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="C41">
-        <v>1.6870000000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.1531818181818182</v>
       </c>
       <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>0.77</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0.11795000000000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>7.958570898417733</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="8"/>
-        <v>0.15336363636363637</v>
-      </c>
-      <c r="E41">
-        <v>10000</v>
-      </c>
-      <c r="F41">
-        <v>0.77</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="9"/>
-        <v>0.11809</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="10"/>
-        <v>796.87700332678776</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="11"/>
-        <v>3.137247014988568E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.1412674862229757</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1.7</v>
       </c>
       <c r="B42">
-        <v>0.17799999999999999</v>
+        <v>1.782</v>
       </c>
       <c r="C42">
-        <v>1.948</v>
+        <f t="shared" si="7"/>
+        <v>0.16200000000000001</v>
       </c>
       <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>0.77</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0.12474</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>7.9186927872224278</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="8"/>
-        <v>0.17709090909090908</v>
-      </c>
-      <c r="E42">
-        <v>10000</v>
-      </c>
-      <c r="F42">
-        <v>0.77</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="9"/>
-        <v>0.13635999999999998</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="10"/>
-        <v>872.06773937735022</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="11"/>
-        <v>2.8667497799941332E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.1570867404200733</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1.8</v>
       </c>
       <c r="B43">
-        <v>0.20499999999999999</v>
+        <v>1.901</v>
       </c>
       <c r="C43">
-        <v>2.2679999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.17281818181818182</v>
       </c>
       <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>0.77</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>0.13306999999999999</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>7.9829386956860811</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="8"/>
-        <v>0.20618181818181816</v>
-      </c>
-      <c r="E43">
-        <v>10000</v>
-      </c>
-      <c r="F43">
-        <v>0.77</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="9"/>
-        <v>0.15875999999999998</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="10"/>
-        <v>967.3173941653871</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="11"/>
-        <v>2.5844671201814058E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.1316788156609303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1.9</v>
       </c>
       <c r="B44">
-        <v>0.23200000000000001</v>
+        <v>2.125</v>
       </c>
       <c r="C44">
-        <v>2.5649999999999999</v>
+        <f t="shared" si="7"/>
+        <v>0.19318181818181818</v>
       </c>
       <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>0.77</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0.14874999999999999</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>8.4939329050678083</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="8"/>
-        <v>0.23318181818181818</v>
-      </c>
-      <c r="E44">
-        <v>10000</v>
-      </c>
-      <c r="F44">
-        <v>0.77</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="9"/>
-        <v>0.17955000000000002</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="10"/>
-        <v>1043.6223081170626</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="11"/>
-        <v>2.3955026455026448E-2</v>
+        <v>2.9432773109243699</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
       </c>
       <c r="K44" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
       <c r="B45">
-        <v>0.26</v>
+        <v>2.387</v>
       </c>
       <c r="C45">
-        <v>2.8639999999999999</v>
+        <f t="shared" si="7"/>
+        <v>0.217</v>
       </c>
       <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>0.77</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>0.16709000000000002</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>9.1161049915162238</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="8"/>
-        <v>0.26036363636363635</v>
-      </c>
-      <c r="E45">
-        <v>10000</v>
-      </c>
-      <c r="F45">
-        <v>0.77</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="9"/>
-        <v>0.20047999999999999</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="10"/>
-        <v>1114.0748644082867</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="11"/>
-        <v>2.2440143655227455E-2</v>
+        <v>2.7423993057633607</v>
+      </c>
+      <c r="J45">
+        <f>AVERAGE(G26:G45)</f>
+        <v>6.8961640883711199</v>
       </c>
       <c r="K45">
-        <f>AVERAGE(H26:H45)</f>
-        <v>618.74095449962601</v>
-      </c>
-      <c r="L45">
-        <f>AVERAGE(I28:I45)</f>
-        <v>4.1240755700154209E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <f>AVERAGE(H28:H45)</f>
+        <v>3.4765544280685869</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="B2" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="C2" s="44">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="44">
         <v>0.11899999999999999</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="44">
         <v>0.77390000000000003</v>
       </c>
-      <c r="E2">
-        <f>D2*C2</f>
+      <c r="F2" s="44">
+        <f t="shared" ref="F2:F9" si="0">E2*D2</f>
         <v>9.2094099999999998E-2</v>
       </c>
-      <c r="F2">
-        <f>(10000*E2)/(1.4-E2)</f>
-        <v>704.13399006763416</v>
-      </c>
-      <c r="G2">
+      <c r="G2" s="44">
+        <f>(100*F2)/(B2-F2)</f>
+        <v>7.0413399006763413</v>
+      </c>
+      <c r="H2" s="44">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="44">
         <v>30.1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="C3" s="44">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="44">
         <v>0.14499999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="44">
         <v>0.77449999999999997</v>
       </c>
-      <c r="E3">
-        <f>D3*C3</f>
+      <c r="F3" s="44">
+        <f t="shared" si="0"/>
         <v>0.11230249999999999</v>
       </c>
-      <c r="F3">
-        <f>(10000*E3)/(1.4-E3)</f>
-        <v>872.11864587762261</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="44">
+        <f t="shared" ref="G3:G9" si="1">(100*F3)/(B3-F3)</f>
+        <v>8.7211864587762253</v>
+      </c>
+      <c r="H3" s="44">
         <v>28.02</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>25.7</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
+        <v>23.74</v>
+      </c>
+      <c r="B4" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="C4" s="44">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="44">
+        <v>0.188</v>
+      </c>
+      <c r="E4" s="44">
         <v>0.7601</v>
       </c>
-      <c r="E4">
-        <f>D4*C4</f>
-        <v>0.12693670000000001</v>
-      </c>
-      <c r="F4">
-        <f>(10000*E4)/(1.4-E4)</f>
-        <v>997.09653086378353</v>
-      </c>
-      <c r="G4">
-        <v>24.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>25.1</v>
-      </c>
-      <c r="B5">
+      <c r="F4" s="44">
+        <f t="shared" si="0"/>
+        <v>0.14289879999999999</v>
+      </c>
+      <c r="G4" s="44">
+        <f t="shared" si="1"/>
+        <v>11.367326671870174</v>
+      </c>
+      <c r="H4" s="44">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
+        <v>23.72</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="C5" s="44">
         <v>24.31</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="44">
         <v>0.108</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="44">
         <v>0.76870000000000005</v>
       </c>
-      <c r="E5">
-        <f>D5*C5</f>
+      <c r="F5" s="44">
+        <f t="shared" si="0"/>
         <v>8.3019599999999999E-2</v>
       </c>
-      <c r="F5">
-        <f>(10000*E5)/(1.4-E5)</f>
-        <v>630.37840198684819</v>
-      </c>
-      <c r="G5">
+      <c r="G5" s="44">
+        <f t="shared" si="1"/>
+        <v>6.3037840198684814</v>
+      </c>
+      <c r="H5" s="44">
         <v>25.82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>34</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>32.65</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="C6" s="44">
         <v>24.27</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="44">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="44">
         <v>0.76929999999999998</v>
       </c>
-      <c r="E6">
-        <f>D6*C6</f>
+      <c r="F6" s="44">
+        <f t="shared" si="0"/>
         <v>6.4621200000000004E-2</v>
       </c>
-      <c r="F6">
-        <f>(10000*E6)/(1.4-E6)</f>
-        <v>483.91662350787658</v>
-      </c>
-      <c r="G6">
+      <c r="G6" s="44">
+        <f t="shared" si="1"/>
+        <v>4.8391662350787659</v>
+      </c>
+      <c r="H6" s="44">
         <v>35.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
+        <v>15.8</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="44">
+        <v>20</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0.7772</v>
+      </c>
+      <c r="F7" s="44">
+        <f t="shared" si="0"/>
+        <v>0.15310840000000001</v>
+      </c>
+      <c r="G7" s="44">
+        <f t="shared" si="1"/>
+        <v>12.279206949505475</v>
+      </c>
+      <c r="H7" s="44">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="C8" s="44">
+        <v>20</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="F8" s="44">
+        <f t="shared" si="0"/>
+        <v>0.12679770000000001</v>
+      </c>
+      <c r="G8" s="44">
+        <f t="shared" si="1"/>
+        <v>9.958959389250241</v>
+      </c>
+      <c r="H8" s="44">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="C9" s="44">
+        <v>20</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="F9" s="44">
+        <f t="shared" si="0"/>
+        <v>0.15364030000000001</v>
+      </c>
+      <c r="G9" s="44">
+        <f t="shared" si="1"/>
+        <v>12.327123542264726</v>
+      </c>
+      <c r="H9" s="44">
+        <v>14.83</v>
       </c>
     </row>
   </sheetData>
